--- a/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
+++ b/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Findsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50E63B-93A3-4DCE-9CB1-5E4846FA2F80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DE0D9-1D00-49C1-AAEB-691C858982CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26595" yWindow="29025" windowWidth="5400" windowHeight="2880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1217">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -3682,16 +3682,31 @@
   </si>
   <si>
     <t>Time_E1T0_Y6</t>
+  </si>
+  <si>
+    <t>!DefaultValue</t>
+  </si>
+  <si>
+    <t>!Scale</t>
+  </si>
+  <si>
+    <t>log10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7392,13 +7407,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7406,7 +7429,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7417,22 +7440,28 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F2" t="s">
         <v>220</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>222</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -7442,21 +7471,31 @@
       <c r="C3" t="s">
         <v>226</v>
       </c>
-      <c r="E3">
+      <c r="D3">
+        <v>2.7781499800708835</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F3">
+        <f>LOG(G3,2)</f>
+        <v>9.2288144706082349</v>
+      </c>
+      <c r="G3">
         <v>599.99824500063198</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" si="0">LOG10(E3)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">LOG10(G3)</f>
         <v>2.7781499800708835</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -7466,21 +7505,31 @@
       <c r="C4" t="s">
         <v>230</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">LOG(G4,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>-0.3010299956639812</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -7490,21 +7539,31 @@
       <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>0.90308185746752123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.9999729943044238</v>
+      </c>
+      <c r="G5">
         <v>7.9998502500275999</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>0.90308185746752123</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7514,21 +7573,31 @@
       <c r="C6" t="s">
         <v>230</v>
       </c>
-      <c r="E6">
+      <c r="D6">
+        <v>0.93625228285283602</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.1101627623112655</v>
+      </c>
+      <c r="G6">
         <v>8.6348000000000003</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.93625228285283602</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -7538,21 +7607,31 @@
       <c r="C7" t="s">
         <v>230</v>
       </c>
-      <c r="E7">
+      <c r="D7">
+        <v>0.10397466938638814</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.34539637539126772</v>
+      </c>
+      <c r="G7">
         <v>1.2705</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0.10397466938638814</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -7562,21 +7641,31 @@
       <c r="C8" t="s">
         <v>230</v>
       </c>
-      <c r="E8">
+      <c r="D8">
+        <v>0.54439054333774783</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.8084262405046607</v>
+      </c>
+      <c r="G8">
         <v>3.5026000000000002</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>0.54439054333774783</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>245</v>
       </c>
@@ -7586,21 +7675,31 @@
       <c r="C9" t="s">
         <v>230</v>
       </c>
-      <c r="E9">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>248</v>
       </c>
@@ -7610,21 +7709,31 @@
       <c r="C10" t="s">
         <v>230</v>
       </c>
-      <c r="E10">
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G10">
         <v>0.1</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -7634,21 +7743,31 @@
       <c r="C11" t="s">
         <v>234</v>
       </c>
-      <c r="E11">
+      <c r="D11">
+        <v>7.9184548483983541E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.26304537628991542</v>
+      </c>
+      <c r="G11">
         <v>1.20000912500357</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>7.9184548483983541E-2</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -7658,21 +7777,31 @@
       <c r="C12" t="s">
         <v>230</v>
       </c>
-      <c r="E12">
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G12">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -7682,21 +7811,31 @@
       <c r="C13" t="s">
         <v>230</v>
       </c>
-      <c r="E13">
+      <c r="D13">
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -7706,21 +7845,31 @@
       <c r="C14" t="s">
         <v>230</v>
       </c>
-      <c r="E14">
+      <c r="D14">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G14">
         <v>0.2</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>263</v>
       </c>
@@ -7730,21 +7879,31 @@
       <c r="C15" t="s">
         <v>230</v>
       </c>
-      <c r="E15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -7754,21 +7913,31 @@
       <c r="C16" t="s">
         <v>230</v>
       </c>
-      <c r="E16">
+      <c r="D16">
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.6438561897747244</v>
+      </c>
+      <c r="G16">
         <v>50</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>1.6989700043360187</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -7778,21 +7947,31 @@
       <c r="C17" t="s">
         <v>234</v>
       </c>
-      <c r="E17">
+      <c r="D17">
+        <v>-0.92081545151601651</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-3.058882718597447</v>
+      </c>
+      <c r="G17">
         <v>0.12000091250035699</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>-0.92081545151601651</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -7802,21 +7981,31 @@
       <c r="C18" t="s">
         <v>230</v>
       </c>
-      <c r="E18">
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G18">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -7826,21 +8015,31 @@
       <c r="C19" t="s">
         <v>234</v>
       </c>
-      <c r="E19">
+      <c r="D19">
+        <v>-0.22185001992911629</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.73696981405385265</v>
+      </c>
+      <c r="G19">
         <v>0.59999824500063204</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>-0.22185001992911629</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>278</v>
       </c>
@@ -7850,21 +8049,31 @@
       <c r="C20" t="s">
         <v>230</v>
       </c>
-      <c r="E20">
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G20">
         <v>0.1</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>281</v>
       </c>
@@ -7874,21 +8083,31 @@
       <c r="C21" t="s">
         <v>234</v>
       </c>
-      <c r="E21">
+      <c r="D21">
+        <v>1.2552681862643851</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4.1699106545699633</v>
+      </c>
+      <c r="G21">
         <v>17.999820999995901</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>1.2552681862643851</v>
       </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -7898,21 +8117,31 @@
       <c r="C22" t="s">
         <v>230</v>
       </c>
-      <c r="E22">
+      <c r="D22">
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>287</v>
       </c>
@@ -7922,21 +8151,31 @@
       <c r="C23" t="s">
         <v>234</v>
       </c>
-      <c r="E23">
+      <c r="D23">
+        <v>2.9999987296881581</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>9.9657800647774906</v>
+      </c>
+      <c r="G23">
         <v>999.99707500316697</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>2.9999987296881581</v>
       </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -7946,21 +8185,31 @@
       <c r="C24" t="s">
         <v>230</v>
       </c>
-      <c r="E24">
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G24">
         <v>0.1</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -7970,21 +8219,31 @@
       <c r="C25" t="s">
         <v>234</v>
       </c>
-      <c r="E25">
+      <c r="D25">
+        <v>0.47711998440690251</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.5849582808335099</v>
+      </c>
+      <c r="G25">
         <v>2.9999912250031602</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>0.47711998440690251</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>296</v>
       </c>
@@ -7994,21 +8253,31 @@
       <c r="C26" t="s">
         <v>230</v>
       </c>
-      <c r="E26">
+      <c r="D26">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -8018,21 +8287,31 @@
       <c r="C27" t="s">
         <v>230</v>
       </c>
-      <c r="E27">
+      <c r="D27">
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>-1.3219280948873622</v>
+      </c>
+      <c r="G27">
         <v>0.4</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>-0.3979400086720376</v>
       </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>302</v>
       </c>
@@ -8042,21 +8321,31 @@
       <c r="C28" t="s">
         <v>234</v>
       </c>
-      <c r="E28">
+      <c r="D28">
+        <v>3.7781499800708835</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>12.550742565495597</v>
+      </c>
+      <c r="G28">
         <v>5999.9824500063196</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>3.7781499800708835</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -8066,21 +8355,31 @@
       <c r="C29" t="s">
         <v>230</v>
       </c>
-      <c r="E29">
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G29">
         <v>0.1</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -8090,21 +8389,31 @@
       <c r="C30" t="s">
         <v>230</v>
       </c>
-      <c r="E30">
+      <c r="D30">
+        <v>-0.769551078621726</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>-2.5563933485243853</v>
+      </c>
+      <c r="G30">
         <v>0.17</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>-0.769551078621726</v>
       </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -8114,21 +8423,31 @@
       <c r="C31" t="s">
         <v>234</v>
       </c>
-      <c r="E31">
+      <c r="D31">
+        <v>3.4771199844069023</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>11.550742565495597</v>
+      </c>
+      <c r="G31">
         <v>2999.9912250031598</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>3.4771199844069023</v>
       </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -8138,21 +8457,31 @@
       <c r="C32" t="s">
         <v>230</v>
       </c>
-      <c r="E32">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>317</v>
       </c>
@@ -8162,21 +8491,31 @@
       <c r="C33" t="s">
         <v>230</v>
       </c>
-      <c r="E33">
+      <c r="D33">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="G33">
         <v>2.5</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>0.3979400086720376</v>
       </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>320</v>
       </c>
@@ -8186,21 +8525,31 @@
       <c r="C34" t="s">
         <v>230</v>
       </c>
-      <c r="E34">
+      <c r="D34">
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>-2.7369655941662061</v>
+      </c>
+      <c r="G34">
         <v>0.15</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>-0.82390874094431876</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -8210,21 +8559,31 @@
       <c r="C35" t="s">
         <v>234</v>
       </c>
-      <c r="E35">
+      <c r="D35">
+        <v>4.4771199844069027</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>14.87267066038296</v>
+      </c>
+      <c r="G35">
         <v>29999.912250031601</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F66" si="1">LOG10(E35)</f>
+      <c r="H35">
+        <f t="shared" ref="H35:H66" si="2">LOG10(G35)</f>
         <v>4.4771199844069027</v>
       </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -8234,21 +8593,31 @@
       <c r="C36" t="s">
         <v>230</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1216</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -8258,21 +8627,31 @@
       <c r="C37" t="s">
         <v>234</v>
       </c>
-      <c r="E37">
-        <v>9999.2666800253901</v>
+      <c r="D37">
+        <v>3.9999681511503717</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1216</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
+        <v>13.28760657996108</v>
+      </c>
+      <c r="G37">
+        <v>9999.2666800253901</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
         <v>3.9999681511503717</v>
       </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -8282,21 +8661,31 @@
       <c r="C38" t="s">
         <v>230</v>
       </c>
-      <c r="E38">
-        <v>0.5</v>
+      <c r="D38">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1216</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
         <v>-0.3010299956639812</v>
       </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>335</v>
       </c>
@@ -8306,21 +8695,31 @@
       <c r="C39" t="s">
         <v>230</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1216</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>338</v>
       </c>
@@ -8330,21 +8729,31 @@
       <c r="C40" t="s">
         <v>230</v>
       </c>
-      <c r="E40">
-        <v>1E-4</v>
+      <c r="D40">
+        <v>-4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1216</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
+        <v>-13.287712379549449</v>
+      </c>
+      <c r="G40">
+        <v>1E-4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -8354,21 +8763,31 @@
       <c r="C41" t="s">
         <v>230</v>
       </c>
-      <c r="E41">
-        <v>0.1</v>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1216</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G41">
+        <v>0.1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -8378,21 +8797,31 @@
       <c r="C42" t="s">
         <v>230</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1216</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>347</v>
       </c>
@@ -8402,21 +8831,31 @@
       <c r="C43" t="s">
         <v>234</v>
       </c>
-      <c r="E43">
-        <v>4200.0003500003904</v>
+      <c r="D43">
+        <v>3.6232493265891463</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1216</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
+        <v>12.036173732778201</v>
+      </c>
+      <c r="G43">
+        <v>4200.0003500003904</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
         <v>3.6232493265891463</v>
       </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>350</v>
       </c>
@@ -8426,21 +8865,31 @@
       <c r="C44" t="s">
         <v>230</v>
       </c>
-      <c r="E44">
-        <v>0.25</v>
+      <c r="D44">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1216</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G44">
+        <v>0.25</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
         <v>-0.6020599913279624</v>
       </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>353</v>
       </c>
@@ -8450,21 +8899,31 @@
       <c r="C45" t="s">
         <v>230</v>
       </c>
-      <c r="E45">
-        <v>2E-3</v>
+      <c r="D45">
+        <v>-2.6989700043360187</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1216</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
+        <v>-8.965784284662087</v>
+      </c>
+      <c r="G45">
+        <v>2E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
         <v>-2.6989700043360187</v>
       </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>356</v>
       </c>
@@ -8474,21 +8933,31 @@
       <c r="C46" t="s">
         <v>230</v>
       </c>
-      <c r="E46">
-        <v>3.3E-4</v>
+      <c r="D46">
+        <v>-3.4814860601221125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1216</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
+        <v>-11.56524635507836</v>
+      </c>
+      <c r="G46">
+        <v>3.3E-4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
         <v>-3.4814860601221125</v>
       </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>359</v>
       </c>
@@ -8498,21 +8967,31 @@
       <c r="C47" t="s">
         <v>230</v>
       </c>
-      <c r="E47">
-        <v>0.2</v>
+      <c r="D47">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1216</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>362</v>
       </c>
@@ -8522,21 +9001,31 @@
       <c r="C48" t="s">
         <v>234</v>
       </c>
-      <c r="E48">
-        <v>499.97958500065499</v>
+      <c r="D48">
+        <v>2.698952271730878</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1216</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
+        <v>8.9657253782228743</v>
+      </c>
+      <c r="G48">
+        <v>499.97958500065499</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
         <v>2.698952271730878</v>
       </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>365</v>
       </c>
@@ -8546,21 +9035,31 @@
       <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="E49">
-        <v>0.1</v>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1216</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
+        <v>-3.3219280948873622</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -8570,21 +9069,31 @@
       <c r="C50" t="s">
         <v>234</v>
       </c>
-      <c r="E50">
-        <v>25.000242750010099</v>
+      <c r="D50">
+        <v>1.3979442256511589</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1216</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
+        <v>4.6438701982761437</v>
+      </c>
+      <c r="G50">
+        <v>25.000242750010099</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
         <v>1.3979442256511589</v>
       </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>371</v>
       </c>
@@ -8594,21 +9103,31 @@
       <c r="C51" t="s">
         <v>230</v>
       </c>
-      <c r="E51">
-        <v>1.6799999999999999E-2</v>
+      <c r="D51">
+        <v>-1.7746907182741372</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1216</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
+        <v>-5.8953949567706898</v>
+      </c>
+      <c r="G51">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
         <v>-1.7746907182741372</v>
       </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>374</v>
       </c>
@@ -8618,21 +9137,31 @@
       <c r="C52" t="s">
         <v>230</v>
       </c>
-      <c r="E52">
-        <v>1E-3</v>
+      <c r="D52">
+        <v>-3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1216</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
+        <v>-9.965784284662087</v>
+      </c>
+      <c r="G52">
+        <v>1E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>377</v>
       </c>
@@ -8642,21 +9171,31 @@
       <c r="C53" t="s">
         <v>234</v>
       </c>
-      <c r="E53">
-        <v>25.000242750010099</v>
+      <c r="D53">
+        <v>1.3979442256511589</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1216</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
+        <v>4.6438701982761437</v>
+      </c>
+      <c r="G53">
+        <v>25.000242750010099</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
         <v>1.3979442256511589</v>
       </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>380</v>
       </c>
@@ -8666,21 +9205,31 @@
       <c r="C54" t="s">
         <v>230</v>
       </c>
-      <c r="E54">
-        <v>1.6799999999999999E-2</v>
+      <c r="D54">
+        <v>-1.7746907182741372</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1216</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
+        <v>-5.8953949567706898</v>
+      </c>
+      <c r="G54">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
         <v>-1.7746907182741372</v>
       </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>383</v>
       </c>
@@ -8690,21 +9239,31 @@
       <c r="C55" t="s">
         <v>234</v>
       </c>
-      <c r="E55">
-        <v>999.99707500316697</v>
+      <c r="D55">
+        <v>2.9999987296881581</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1216</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
+        <v>9.9657800647774906</v>
+      </c>
+      <c r="G55">
+        <v>999.99707500316697</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
         <v>2.9999987296881581</v>
       </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>386</v>
       </c>
@@ -8714,21 +9273,31 @@
       <c r="C56" t="s">
         <v>230</v>
       </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1216</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -8738,21 +9307,31 @@
       <c r="C57" t="s">
         <v>234</v>
       </c>
-      <c r="E57">
-        <v>179998.20999995901</v>
+      <c r="D57">
+        <v>5.2552681862643853</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1216</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
+        <v>17.457623034119411</v>
+      </c>
+      <c r="G57">
+        <v>179998.20999995901</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
         <v>5.2552681862643853</v>
       </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>392</v>
       </c>
@@ -8762,21 +9341,31 @@
       <c r="C58" t="s">
         <v>230</v>
       </c>
-      <c r="E58">
-        <v>10</v>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1216</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>395</v>
       </c>
@@ -8786,21 +9375,31 @@
       <c r="C59" t="s">
         <v>234</v>
       </c>
-      <c r="E59">
-        <v>12000.091250035701</v>
+      <c r="D59">
+        <v>4.0791845484839833</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1216</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
+        <v>13.550757755839365</v>
+      </c>
+      <c r="G59">
+        <v>12000.091250035701</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
         <v>4.0791845484839833</v>
       </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>398</v>
       </c>
@@ -8810,21 +9409,31 @@
       <c r="C60" t="s">
         <v>230</v>
       </c>
-      <c r="E60">
-        <v>10</v>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1216</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>401</v>
       </c>
@@ -8834,21 +9443,31 @@
       <c r="C61" t="s">
         <v>230</v>
       </c>
-      <c r="E61">
-        <v>0.05</v>
+      <c r="D61">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1216</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
+        <v>-4.3219280948873626</v>
+      </c>
+      <c r="G61">
+        <v>0.05</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
         <v>-1.3010299956639813</v>
       </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>404</v>
       </c>
@@ -8858,21 +9477,31 @@
       <c r="C62" t="s">
         <v>230</v>
       </c>
-      <c r="E62">
-        <v>7.0000000000000007E-2</v>
+      <c r="D62">
+        <v>-1.1549019599857431</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1216</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
+        <v>-3.8365012677171206</v>
+      </c>
+      <c r="G62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
         <v>-1.1549019599857431</v>
       </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>407</v>
       </c>
@@ -8882,21 +9511,31 @@
       <c r="C63" t="s">
         <v>234</v>
       </c>
-      <c r="E63">
-        <v>949.78390645995103</v>
+      <c r="D63">
+        <v>2.9776248064390378</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1216</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
+        <v>9.8914555005433851</v>
+      </c>
+      <c r="G63">
+        <v>949.78390645995103</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
         <v>2.9776248064390378</v>
       </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>410</v>
       </c>
@@ -8906,21 +9545,31 @@
       <c r="C64" t="s">
         <v>230</v>
       </c>
-      <c r="E64">
-        <v>16</v>
+      <c r="D64">
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1216</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
         <v>1.2041199826559248</v>
       </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>413</v>
       </c>
@@ -8930,21 +9579,31 @@
       <c r="C65" t="s">
         <v>230</v>
       </c>
-      <c r="E65">
-        <v>4</v>
+      <c r="D65">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1216</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>416</v>
       </c>
@@ -8954,21 +9613,31 @@
       <c r="C66" t="s">
         <v>234</v>
       </c>
-      <c r="E66">
-        <v>5656.5597301964099</v>
+      <c r="D66">
+        <v>3.7525523773992036</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1216</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
+        <v>12.46570917001878</v>
+      </c>
+      <c r="G66">
+        <v>5656.5597301964099</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
         <v>3.7525523773992036</v>
       </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>419</v>
       </c>
@@ -8978,21 +9647,31 @@
       <c r="C67" t="s">
         <v>230</v>
       </c>
-      <c r="E67">
-        <v>16</v>
+      <c r="D67">
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1216</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F98" si="2">LOG10(E67)</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>16</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H98" si="3">LOG10(G67)</f>
         <v>1.2041199826559248</v>
       </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>422</v>
       </c>
@@ -9002,21 +9681,31 @@
       <c r="C68" t="s">
         <v>230</v>
       </c>
-      <c r="E68">
+      <c r="D68">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="4">LOG(G68,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G68">
         <v>4</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="2"/>
+      <c r="H68">
+        <f t="shared" si="3"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>425</v>
       </c>
@@ -9026,21 +9715,31 @@
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="E69">
+      <c r="D69">
+        <v>3.7525523773992036</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>12.46570917001878</v>
+      </c>
+      <c r="G69">
         <v>5656.5597301964099</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="2"/>
+      <c r="H69">
+        <f t="shared" si="3"/>
         <v>3.7525523773992036</v>
       </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>428</v>
       </c>
@@ -9050,21 +9749,31 @@
       <c r="C70" t="s">
         <v>230</v>
       </c>
-      <c r="E70">
-        <v>16</v>
+      <c r="D70">
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1216</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
         <v>1.2041199826559248</v>
       </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>431</v>
       </c>
@@ -9074,21 +9783,31 @@
       <c r="C71" t="s">
         <v>230</v>
       </c>
-      <c r="E71">
+      <c r="D71">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G71">
         <v>4</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
+      <c r="H71">
+        <f t="shared" si="3"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>434</v>
       </c>
@@ -9098,21 +9817,31 @@
       <c r="C72" t="s">
         <v>234</v>
       </c>
-      <c r="E72">
+      <c r="D72">
+        <v>3.1047348955098659</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>10.313706076571403</v>
+      </c>
+      <c r="G72">
         <v>1272.7259392921401</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="2"/>
+      <c r="H72">
+        <f t="shared" si="3"/>
         <v>3.1047348955098659</v>
       </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>437</v>
       </c>
@@ -9122,21 +9851,31 @@
       <c r="C73" t="s">
         <v>230</v>
       </c>
-      <c r="E73">
+      <c r="D73">
+        <v>1.3344537511509309</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>4.4329594072761065</v>
+      </c>
+      <c r="G73">
         <v>21.6</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="2"/>
+      <c r="H73">
+        <f t="shared" si="3"/>
         <v>1.3344537511509309</v>
       </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>440</v>
       </c>
@@ -9146,21 +9885,31 @@
       <c r="C74" t="s">
         <v>230</v>
       </c>
-      <c r="E74">
+      <c r="D74">
+        <v>0.7323937598229685</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>2.4329594072761065</v>
+      </c>
+      <c r="G74">
         <v>5.4</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="2"/>
+      <c r="H74">
+        <f t="shared" si="3"/>
         <v>0.7323937598229685</v>
       </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>443</v>
       </c>
@@ -9170,21 +9919,31 @@
       <c r="C75" t="s">
         <v>234</v>
       </c>
-      <c r="E75">
+      <c r="D75">
+        <v>3.4153102090803342</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>11.345414936299594</v>
+      </c>
+      <c r="G75">
         <v>2602.0174758876901</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="2"/>
+      <c r="H75">
+        <f t="shared" si="3"/>
         <v>3.4153102090803342</v>
       </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>446</v>
       </c>
@@ -9194,21 +9953,31 @@
       <c r="C76" t="s">
         <v>230</v>
       </c>
-      <c r="E76">
+      <c r="D76">
+        <v>1.6450290647211425</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>5.4646682670034448</v>
+      </c>
+      <c r="G76">
         <v>44.16</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="2"/>
+      <c r="H76">
+        <f t="shared" si="3"/>
         <v>1.6450290647211425</v>
       </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>449</v>
       </c>
@@ -9218,21 +9987,31 @@
       <c r="C77" t="s">
         <v>230</v>
       </c>
-      <c r="E77">
+      <c r="D77">
+        <v>1.04296907339318</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>3.4646682670034443</v>
+      </c>
+      <c r="G77">
         <v>11.04</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="2"/>
+      <c r="H77">
+        <f t="shared" si="3"/>
         <v>1.04296907339318</v>
       </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -9242,21 +10021,31 @@
       <c r="C78" t="s">
         <v>234</v>
       </c>
-      <c r="E78">
+      <c r="D78">
+        <v>3.9286436364563397</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>13.050671670744769</v>
+      </c>
+      <c r="G78">
         <v>8484.8395953230392</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="2"/>
+      <c r="H78">
+        <f t="shared" si="3"/>
         <v>3.9286436364563397</v>
       </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>455</v>
       </c>
@@ -9266,21 +10055,31 @@
       <c r="C79" t="s">
         <v>230</v>
       </c>
-      <c r="E79">
+      <c r="D79">
+        <v>2.1583624920952498</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>7.169925001442313</v>
+      </c>
+      <c r="G79">
         <v>144</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="2"/>
+      <c r="H79">
+        <f t="shared" si="3"/>
         <v>2.1583624920952498</v>
       </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>458</v>
       </c>
@@ -9290,21 +10089,31 @@
       <c r="C80" t="s">
         <v>230</v>
       </c>
-      <c r="E80">
+      <c r="D80">
+        <v>1.5563025007672873</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>5.1699250014423122</v>
+      </c>
+      <c r="G80">
         <v>36</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="2"/>
+      <c r="H80">
+        <f t="shared" si="3"/>
         <v>1.5563025007672873</v>
       </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>461</v>
       </c>
@@ -9314,21 +10123,31 @@
       <c r="C81" t="s">
         <v>234</v>
       </c>
-      <c r="E81">
+      <c r="D81">
+        <v>4.1504923860707557</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>13.787637264904527</v>
+      </c>
+      <c r="G81">
         <v>14141.3993254752</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="2"/>
+      <c r="H81">
+        <f t="shared" si="3"/>
         <v>4.1504923860707557</v>
       </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>464</v>
       </c>
@@ -9338,21 +10157,31 @@
       <c r="C82" t="s">
         <v>230</v>
       </c>
-      <c r="E82">
+      <c r="D82">
+        <v>2.3802112417116059</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>7.9068905956085187</v>
+      </c>
+      <c r="G82">
         <v>240</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="2"/>
+      <c r="H82">
+        <f t="shared" si="3"/>
         <v>2.3802112417116059</v>
       </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>467</v>
       </c>
@@ -9362,21 +10191,31 @@
       <c r="C83" t="s">
         <v>230</v>
       </c>
-      <c r="E83">
+      <c r="D83">
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>5.9068905956085187</v>
+      </c>
+      <c r="G83">
         <v>60</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="2"/>
+      <c r="H83">
+        <f t="shared" si="3"/>
         <v>1.7781512503836436</v>
       </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>470</v>
       </c>
@@ -9386,21 +10225,31 @@
       <c r="C84" t="s">
         <v>234</v>
       </c>
-      <c r="E84">
+      <c r="D84">
+        <v>4.4515223817347378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>14.787637264904532</v>
+      </c>
+      <c r="G84">
         <v>28282.798650950499</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="2"/>
+      <c r="H84">
+        <f t="shared" si="3"/>
         <v>4.4515223817347378</v>
       </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>473</v>
       </c>
@@ -9410,21 +10259,31 @@
       <c r="C85" t="s">
         <v>230</v>
       </c>
-      <c r="E85">
+      <c r="D85">
+        <v>2.6812412373755872</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>8.9068905956085196</v>
+      </c>
+      <c r="G85">
         <v>480</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="2"/>
+      <c r="H85">
+        <f t="shared" si="3"/>
         <v>2.6812412373755872</v>
       </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>476</v>
       </c>
@@ -9434,21 +10293,31 @@
       <c r="C86" t="s">
         <v>230</v>
       </c>
-      <c r="E86">
+      <c r="D86">
+        <v>2.0791812460476247</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>6.9068905956085187</v>
+      </c>
+      <c r="G86">
         <v>120</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="2"/>
+      <c r="H86">
+        <f t="shared" si="3"/>
         <v>2.0791812460476247</v>
       </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>479</v>
       </c>
@@ -9458,21 +10327,31 @@
       <c r="C87" t="s">
         <v>234</v>
       </c>
-      <c r="E87">
+      <c r="D87">
+        <v>3.3758016677967109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>11.214170403021507</v>
+      </c>
+      <c r="G87">
         <v>2375.7550866803399</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="2"/>
+      <c r="H87">
+        <f t="shared" si="3"/>
         <v>3.3758016677967109</v>
       </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>482</v>
       </c>
@@ -9482,21 +10361,31 @@
       <c r="C88" t="s">
         <v>230</v>
       </c>
-      <c r="E88">
+      <c r="D88">
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="G88">
         <v>40</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="2"/>
+      <c r="H88">
+        <f t="shared" si="3"/>
         <v>1.6020599913279623</v>
       </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>485</v>
       </c>
@@ -9506,21 +10395,31 @@
       <c r="C89" t="s">
         <v>230</v>
       </c>
-      <c r="E89">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G89">
         <v>10</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="2"/>
+      <c r="H89">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>488</v>
       </c>
@@ -9530,21 +10429,31 @@
       <c r="C90" t="s">
         <v>234</v>
       </c>
-      <c r="E90">
+      <c r="D90">
+        <v>4.6556423643913893</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>15.465709170019583</v>
+      </c>
+      <c r="G90">
         <v>45252.477841596497</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="2"/>
+      <c r="H90">
+        <f t="shared" si="3"/>
         <v>4.6556423643913893</v>
       </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -9554,21 +10463,31 @@
       <c r="C91" t="s">
         <v>230</v>
       </c>
-      <c r="E91">
+      <c r="D91">
+        <v>2.2833012287035497</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>7.5849625007211561</v>
+      </c>
+      <c r="G91">
         <v>192</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="2"/>
+      <c r="H91">
+        <f t="shared" si="3"/>
         <v>2.2833012287035497</v>
       </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>494</v>
       </c>
@@ -9578,21 +10497,31 @@
       <c r="C92" t="s">
         <v>230</v>
       </c>
-      <c r="E92">
+      <c r="D92">
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>5.584962500721157</v>
+      </c>
+      <c r="G92">
         <v>48</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="2"/>
+      <c r="H92">
+        <f t="shared" si="3"/>
         <v>1.6812412373755872</v>
       </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>497</v>
       </c>
@@ -9602,21 +10531,31 @@
       <c r="C93" t="s">
         <v>234</v>
       </c>
-      <c r="E93">
+      <c r="D93">
+        <v>3.5654657340420219</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>11.844220793272385</v>
+      </c>
+      <c r="G93">
         <v>3676.76382462735</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="2"/>
+      <c r="H93">
+        <f t="shared" si="3"/>
         <v>3.5654657340420219</v>
       </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>500</v>
       </c>
@@ -9626,21 +10565,31 @@
       <c r="C94" t="s">
         <v>230</v>
       </c>
-      <c r="E94">
+      <c r="D94">
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>6.3219280948873617</v>
+      </c>
+      <c r="G94">
         <v>80</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="2"/>
+      <c r="H94">
+        <f t="shared" si="3"/>
         <v>1.9030899869919435</v>
       </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>503</v>
       </c>
@@ -9650,21 +10599,31 @@
       <c r="C95" t="s">
         <v>230</v>
       </c>
-      <c r="E95">
+      <c r="D95">
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="G95">
         <v>20</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="2"/>
+      <c r="H95">
+        <f t="shared" si="3"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>506</v>
       </c>
@@ -9674,21 +10633,31 @@
       <c r="C96" t="s">
         <v>234</v>
       </c>
-      <c r="E96">
+      <c r="D96">
+        <v>3.2644357383780398</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>10.844220793272381</v>
+      </c>
+      <c r="G96">
         <v>1838.38191231367</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="2"/>
+      <c r="H96">
+        <f t="shared" si="3"/>
         <v>3.2644357383780398</v>
       </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>509</v>
       </c>
@@ -9698,21 +10667,31 @@
       <c r="C97" t="s">
         <v>230</v>
       </c>
-      <c r="E97">
+      <c r="D97">
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="G97">
         <v>40</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="2"/>
+      <c r="H97">
+        <f t="shared" si="3"/>
         <v>1.6020599913279623</v>
       </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>512</v>
       </c>
@@ -9722,21 +10701,31 @@
       <c r="C98" t="s">
         <v>230</v>
       </c>
-      <c r="E98">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G98">
         <v>10</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="2"/>
+      <c r="H98">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>515</v>
       </c>
@@ -9746,21 +10735,31 @@
       <c r="C99" t="s">
         <v>234</v>
       </c>
-      <c r="E99">
+      <c r="D99">
+        <v>4.2644357383780394</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>14.166148888159743</v>
+      </c>
+      <c r="G99">
         <v>18383.819123136698</v>
       </c>
-      <c r="F99">
-        <f t="shared" ref="F99:F130" si="3">LOG10(E99)</f>
+      <c r="H99">
+        <f t="shared" ref="H99:H130" si="5">LOG10(G99)</f>
         <v>4.2644357383780394</v>
       </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>518</v>
       </c>
@@ -9770,21 +10769,31 @@
       <c r="C100" t="s">
         <v>230</v>
       </c>
-      <c r="E100">
+      <c r="D100">
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="G100">
         <v>40</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="3"/>
+      <c r="H100">
+        <f t="shared" si="5"/>
         <v>1.6020599913279623</v>
       </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>521</v>
       </c>
@@ -9794,21 +10803,31 @@
       <c r="C101" t="s">
         <v>230</v>
       </c>
-      <c r="E101">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G101">
         <v>10</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="3"/>
+      <c r="H101">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>524</v>
       </c>
@@ -9818,21 +10837,31 @@
       <c r="C102" t="s">
         <v>234</v>
       </c>
-      <c r="E102">
+      <c r="D102">
+        <v>4.1839161415585693</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>13.89866857729614</v>
+      </c>
+      <c r="G102">
         <v>15272.7112715436</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="3"/>
+      <c r="H102">
+        <f t="shared" si="5"/>
         <v>4.1839161415585693</v>
       </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>527</v>
       </c>
@@ -9842,21 +10871,31 @@
       <c r="C103" t="s">
         <v>230</v>
       </c>
-      <c r="E103">
+      <c r="D103">
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>-0.73696559416620622</v>
+      </c>
+      <c r="G103">
         <v>0.6</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="3"/>
+      <c r="H103">
+        <f t="shared" si="5"/>
         <v>-0.22184874961635639</v>
       </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>530</v>
       </c>
@@ -9866,21 +10905,31 @@
       <c r="C104" t="s">
         <v>230</v>
       </c>
-      <c r="E104">
+      <c r="D104">
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>-2.7369655941662061</v>
+      </c>
+      <c r="G104">
         <v>0.15</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="3"/>
+      <c r="H104">
+        <f t="shared" si="5"/>
         <v>-0.82390874094431876</v>
       </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>533</v>
       </c>
@@ -9890,21 +10939,31 @@
       <c r="C105" t="s">
         <v>234</v>
       </c>
-      <c r="E105">
+      <c r="D105">
+        <v>4.1839161415585693</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>13.89866857729614</v>
+      </c>
+      <c r="G105">
         <v>15272.7112715436</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="3"/>
+      <c r="H105">
+        <f t="shared" si="5"/>
         <v>4.1839161415585693</v>
       </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>536</v>
       </c>
@@ -9914,21 +10973,31 @@
       <c r="C106" t="s">
         <v>230</v>
       </c>
-      <c r="E106">
+      <c r="D106">
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>-0.73696559416620622</v>
+      </c>
+      <c r="G106">
         <v>0.6</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="3"/>
+      <c r="H106">
+        <f t="shared" si="5"/>
         <v>-0.22184874961635639</v>
       </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>539</v>
       </c>
@@ -9938,21 +11007,31 @@
       <c r="C107" t="s">
         <v>230</v>
       </c>
-      <c r="E107">
+      <c r="D107">
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>-2.7369655941662061</v>
+      </c>
+      <c r="G107">
         <v>0.15</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="3"/>
+      <c r="H107">
+        <f t="shared" si="5"/>
         <v>-0.82390874094431876</v>
       </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>542</v>
       </c>
@@ -9962,21 +11041,31 @@
       <c r="C108" t="s">
         <v>234</v>
       </c>
-      <c r="E108">
+      <c r="D108">
+        <v>3.9488470225446268</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>13.117785866603306</v>
+      </c>
+      <c r="G108">
         <v>8888.87957605271</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="3"/>
+      <c r="H108">
+        <f t="shared" si="5"/>
         <v>3.9488470225446268</v>
       </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>545</v>
       </c>
@@ -9986,21 +11075,31 @@
       <c r="C109" t="s">
         <v>230</v>
       </c>
-      <c r="E109">
+      <c r="D109">
+        <v>7.9181246047624818E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>0.26303440583379378</v>
+      </c>
+      <c r="G109">
         <v>1.2</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="3"/>
+      <c r="H109">
+        <f t="shared" si="5"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>548</v>
       </c>
@@ -10010,21 +11109,31 @@
       <c r="C110" t="s">
         <v>230</v>
       </c>
-      <c r="E110">
+      <c r="D110">
+        <v>-0.52287874528033762</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>-1.7369655941662063</v>
+      </c>
+      <c r="G110">
         <v>0.3</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="3"/>
+      <c r="H110">
+        <f t="shared" si="5"/>
         <v>-0.52287874528033762</v>
       </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>551</v>
       </c>
@@ -10034,21 +11143,31 @@
       <c r="C111" t="s">
         <v>234</v>
       </c>
-      <c r="E111">
+      <c r="D111">
+        <v>3.9488470225446268</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>13.117785866603306</v>
+      </c>
+      <c r="G111">
         <v>8888.87957605271</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="3"/>
+      <c r="H111">
+        <f t="shared" si="5"/>
         <v>3.9488470225446268</v>
       </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>554</v>
       </c>
@@ -10058,21 +11177,31 @@
       <c r="C112" t="s">
         <v>230</v>
       </c>
-      <c r="E112">
+      <c r="D112">
+        <v>7.9181246047624818E-2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>0.26303440583379378</v>
+      </c>
+      <c r="G112">
         <v>1.2</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="3"/>
+      <c r="H112">
+        <f t="shared" si="5"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>557</v>
       </c>
@@ -10082,21 +11211,31 @@
       <c r="C113" t="s">
         <v>230</v>
       </c>
-      <c r="E113">
+      <c r="D113">
+        <v>-0.52287874528033762</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>-1.7369655941662063</v>
+      </c>
+      <c r="G113">
         <v>0.3</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="3"/>
+      <c r="H113">
+        <f t="shared" si="5"/>
         <v>-0.52287874528033762</v>
       </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>560</v>
       </c>
@@ -10106,21 +11245,31 @@
       <c r="C114" t="s">
         <v>234</v>
       </c>
-      <c r="E114">
+      <c r="D114">
+        <v>0.97643781680986785</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>3.2436562165711798</v>
+      </c>
+      <c r="G114">
         <v>9.4719155393141392</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="3"/>
+      <c r="H114">
+        <f t="shared" si="5"/>
         <v>0.97643781680986785</v>
       </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>563</v>
       </c>
@@ -10130,21 +11279,31 @@
       <c r="C115" t="s">
         <v>230</v>
       </c>
-      <c r="E115">
+      <c r="D115">
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>-3.6438561897747253</v>
+      </c>
+      <c r="G115">
         <v>0.08</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="3"/>
+      <c r="H115">
+        <f t="shared" si="5"/>
         <v>-1.0969100130080565</v>
       </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -10154,21 +11313,31 @@
       <c r="C116" t="s">
         <v>230</v>
       </c>
-      <c r="E116">
+      <c r="D116">
+        <v>-1.6989700043360187</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>-5.6438561897747244</v>
+      </c>
+      <c r="G116">
         <v>0.02</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="3"/>
+      <c r="H116">
+        <f t="shared" si="5"/>
         <v>-1.6989700043360187</v>
       </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>569</v>
       </c>
@@ -10178,21 +11347,31 @@
       <c r="C117" t="s">
         <v>234</v>
       </c>
-      <c r="E117">
+      <c r="D117">
+        <v>2.2710663172764876</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>7.5443190047131399</v>
+      </c>
+      <c r="G117">
         <v>186.66647109622201</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="3"/>
+      <c r="H117">
+        <f t="shared" si="5"/>
         <v>2.2710663172764876</v>
       </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>572</v>
       </c>
@@ -10202,21 +11381,31 @@
       <c r="C118" t="s">
         <v>230</v>
       </c>
-      <c r="E118">
+      <c r="D118">
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="4"/>
+        <v>-3.6438561897747253</v>
+      </c>
+      <c r="G118">
         <v>0.08</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="3"/>
+      <c r="H118">
+        <f t="shared" si="5"/>
         <v>-1.0969100130080565</v>
       </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>575</v>
       </c>
@@ -10226,21 +11415,31 @@
       <c r="C119" t="s">
         <v>230</v>
       </c>
-      <c r="E119">
+      <c r="D119">
+        <v>-1.6989700043360187</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="4"/>
+        <v>-5.6438561897747244</v>
+      </c>
+      <c r="G119">
         <v>0.02</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="3"/>
+      <c r="H119">
+        <f t="shared" si="5"/>
         <v>-1.6989700043360187</v>
       </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>578</v>
       </c>
@@ -10250,21 +11449,31 @@
       <c r="C120" t="s">
         <v>234</v>
       </c>
-      <c r="E120">
+      <c r="D120">
+        <v>4.6688837502421361</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="4"/>
+        <v>15.509696101692422</v>
+      </c>
+      <c r="G120">
         <v>46653.448400010602</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="3"/>
+      <c r="H120">
+        <f t="shared" si="5"/>
         <v>4.6688837502421361</v>
       </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>581</v>
       </c>
@@ -10274,21 +11483,31 @@
       <c r="C121" t="s">
         <v>230</v>
       </c>
-      <c r="E121">
+      <c r="D121">
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="4"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="G121">
         <v>40</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="3"/>
+      <c r="H121">
+        <f t="shared" si="5"/>
         <v>1.6020599913279623</v>
       </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>584</v>
       </c>
@@ -10298,21 +11517,31 @@
       <c r="C122" t="s">
         <v>230</v>
       </c>
-      <c r="E122">
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="4"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="G122">
         <v>10</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="3"/>
+      <c r="H122">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>587</v>
       </c>
@@ -10322,21 +11551,31 @@
       <c r="C123" t="s">
         <v>234</v>
       </c>
-      <c r="E123">
+      <c r="D123">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="4"/>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G123">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="3"/>
+      <c r="H123">
+        <f t="shared" si="5"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>590</v>
       </c>
@@ -10346,21 +11585,31 @@
       <c r="C124" t="s">
         <v>230</v>
       </c>
-      <c r="E124">
+      <c r="D124">
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="4"/>
+        <v>-0.32192809488736229</v>
+      </c>
+      <c r="G124">
         <v>0.8</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="3"/>
+      <c r="H124">
+        <f t="shared" si="5"/>
         <v>-9.6910013008056392E-2</v>
       </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>593</v>
       </c>
@@ -10370,21 +11619,31 @@
       <c r="C125" t="s">
         <v>230</v>
       </c>
-      <c r="E125">
+      <c r="D125">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="4"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G125">
         <v>0.2</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="3"/>
+      <c r="H125">
+        <f t="shared" si="5"/>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>596</v>
       </c>
@@ -10394,21 +11653,31 @@
       <c r="C126" t="s">
         <v>234</v>
       </c>
-      <c r="E126">
+      <c r="D126">
+        <v>3.4515223817347365</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="4"/>
+        <v>11.465709170017165</v>
+      </c>
+      <c r="G126">
         <v>2828.2798650950399</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="3"/>
+      <c r="H126">
+        <f t="shared" si="5"/>
         <v>3.4515223817347365</v>
       </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>599</v>
       </c>
@@ -10418,21 +11687,31 @@
       <c r="C127" t="s">
         <v>230</v>
       </c>
-      <c r="E127">
+      <c r="D127">
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="4"/>
+        <v>-0.32192809488736229</v>
+      </c>
+      <c r="G127">
         <v>0.8</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="3"/>
+      <c r="H127">
+        <f t="shared" si="5"/>
         <v>-9.6910013008056392E-2</v>
       </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>602</v>
       </c>
@@ -10442,21 +11721,31 @@
       <c r="C128" t="s">
         <v>230</v>
       </c>
-      <c r="E128">
+      <c r="D128">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G128">
         <v>0.2</v>
       </c>
-      <c r="F128">
-        <f t="shared" si="3"/>
+      <c r="H128">
+        <f t="shared" si="5"/>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>605</v>
       </c>
@@ -10466,21 +11755,31 @@
       <c r="C129" t="s">
         <v>234</v>
       </c>
-      <c r="E129">
+      <c r="D129">
+        <v>3.0535823730622131</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="4"/>
+        <v>10.143781075128189</v>
+      </c>
+      <c r="G129">
         <v>1131.31194603675</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="3"/>
+      <c r="H129">
+        <f t="shared" si="5"/>
         <v>3.0535823730622131</v>
       </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>608</v>
       </c>
@@ -10490,21 +11789,31 @@
       <c r="C130" t="s">
         <v>230</v>
       </c>
-      <c r="E130">
+      <c r="D130">
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="4"/>
+        <v>-0.32192809488736229</v>
+      </c>
+      <c r="G130">
         <v>0.8</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="3"/>
+      <c r="H130">
+        <f t="shared" si="5"/>
         <v>-9.6910013008056392E-2</v>
       </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>611</v>
       </c>
@@ -10514,21 +11823,31 @@
       <c r="C131" t="s">
         <v>230</v>
       </c>
-      <c r="E131">
+      <c r="D131">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="4"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G131">
         <v>0.2</v>
       </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F134" si="4">LOG10(E131)</f>
+      <c r="H131">
+        <f t="shared" ref="H131:H134" si="6">LOG10(G131)</f>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>614</v>
       </c>
@@ -10538,21 +11857,31 @@
       <c r="C132" t="s">
         <v>234</v>
       </c>
-      <c r="E132">
+      <c r="D132">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F162" si="7">LOG(G132,2)</f>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G132">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="4"/>
+      <c r="H132">
+        <f t="shared" si="6"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>617</v>
       </c>
@@ -10562,21 +11891,31 @@
       <c r="C133" t="s">
         <v>230</v>
       </c>
-      <c r="E133">
+      <c r="D133">
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="7"/>
+        <v>-0.32192809488736229</v>
+      </c>
+      <c r="G133">
         <v>0.8</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="4"/>
+      <c r="H133">
+        <f t="shared" si="6"/>
         <v>-9.6910013008056392E-2</v>
       </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>620</v>
       </c>
@@ -10586,21 +11925,31 @@
       <c r="C134" t="s">
         <v>230</v>
       </c>
-      <c r="E134">
+      <c r="D134">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="7"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="G134">
         <v>0.2</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="4"/>
+      <c r="H134">
+        <f t="shared" si="6"/>
         <v>-0.69897000433601875</v>
       </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>623</v>
       </c>
@@ -10610,21 +11959,31 @@
       <c r="C135" t="s">
         <v>230</v>
       </c>
-      <c r="E135">
+      <c r="D135">
+        <v>-1.0122377588510769</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="7"/>
+        <v>3.8073549220576037</v>
+      </c>
+      <c r="G135">
         <v>14</v>
       </c>
-      <c r="F135">
-        <f>LOG10(E136)</f>
+      <c r="H135">
+        <f>LOG10(G136)</f>
         <v>-1.0122377588510769</v>
       </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>626</v>
       </c>
@@ -10634,21 +11993,31 @@
       <c r="C136" t="s">
         <v>628</v>
       </c>
-      <c r="E136">
+      <c r="D136">
+        <v>1.146128035678238</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="7"/>
+        <v>-3.3625810498332109</v>
+      </c>
+      <c r="G136">
         <v>9.7221482934086598E-2</v>
       </c>
-      <c r="F136">
-        <f>LOG10(E135)</f>
+      <c r="H136">
+        <f>LOG10(G135)</f>
         <v>1.146128035678238</v>
       </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>630</v>
       </c>
@@ -10658,21 +12027,31 @@
       <c r="C137" t="s">
         <v>230</v>
       </c>
-      <c r="E137">
+      <c r="D137">
+        <v>-1.7035209345227176</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="7"/>
+        <v>5.8328900141647422</v>
+      </c>
+      <c r="G137">
         <v>57</v>
       </c>
-      <c r="F137">
-        <f>LOG10(E138)</f>
+      <c r="H137">
+        <f>LOG10(G138)</f>
         <v>-1.7035209345227176</v>
       </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>633</v>
       </c>
@@ -10682,21 +12061,31 @@
       <c r="C138" t="s">
         <v>628</v>
       </c>
-      <c r="E138">
+      <c r="D138">
+        <v>1.7558748556724915</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="7"/>
+        <v>-5.65897405261979</v>
+      </c>
+      <c r="G138">
         <v>1.9791516168637599E-2</v>
       </c>
-      <c r="F138">
-        <f>LOG10(E137)</f>
+      <c r="H138">
+        <f>LOG10(G137)</f>
         <v>1.7558748556724915</v>
       </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>636</v>
       </c>
@@ -10706,21 +12095,31 @@
       <c r="C139" t="s">
         <v>234</v>
       </c>
-      <c r="E139">
+      <c r="D139">
+        <v>3.9016280469517008</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="7"/>
+        <v>12.960927824969366</v>
+      </c>
+      <c r="G139">
         <v>7973.11534475801</v>
       </c>
-      <c r="F139">
-        <f t="shared" ref="F139:F162" si="5">LOG10(E139)</f>
+      <c r="H139">
+        <f t="shared" ref="H139:H162" si="8">LOG10(G139)</f>
         <v>3.9016280469517008</v>
       </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>639</v>
       </c>
@@ -10730,21 +12129,31 @@
       <c r="C140" t="s">
         <v>230</v>
       </c>
-      <c r="E140">
+      <c r="D140">
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G140">
         <v>2</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="5"/>
+      <c r="H140">
+        <f t="shared" si="8"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>642</v>
       </c>
@@ -10754,21 +12163,31 @@
       <c r="C141" t="s">
         <v>230</v>
       </c>
-      <c r="E141">
+      <c r="D141">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G141">
         <v>0.5</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="5"/>
+      <c r="H141">
+        <f t="shared" si="8"/>
         <v>-0.3010299956639812</v>
       </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>645</v>
       </c>
@@ -10778,21 +12197,31 @@
       <c r="C142" t="s">
         <v>234</v>
       </c>
-      <c r="E142">
+      <c r="D142">
+        <v>3.43373423038028</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="7"/>
+        <v>11.406618210276688</v>
+      </c>
+      <c r="G142">
         <v>2714.7774329045501</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="5"/>
+      <c r="H142">
+        <f t="shared" si="8"/>
         <v>3.43373423038028</v>
       </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>648</v>
       </c>
@@ -10802,21 +12231,31 @@
       <c r="C143" t="s">
         <v>230</v>
       </c>
-      <c r="E143">
-        <v>16</v>
+      <c r="D143">
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1216</v>
       </c>
       <c r="F143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G143">
+        <v>16</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="8"/>
         <v>1.2041199826559248</v>
       </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>651</v>
       </c>
@@ -10826,21 +12265,31 @@
       <c r="C144" t="s">
         <v>230</v>
       </c>
-      <c r="E144">
+      <c r="D144">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G144">
         <v>4</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="5"/>
+      <c r="H144">
+        <f t="shared" si="8"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>654</v>
       </c>
@@ -10850,21 +12299,31 @@
       <c r="C145" t="s">
         <v>234</v>
       </c>
-      <c r="E145">
+      <c r="D145">
+        <v>3.43373423038028</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="7"/>
+        <v>11.406618210276688</v>
+      </c>
+      <c r="G145">
         <v>2714.7774329045501</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="5"/>
+      <c r="H145">
+        <f t="shared" si="8"/>
         <v>3.43373423038028</v>
       </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>657</v>
       </c>
@@ -10874,21 +12333,31 @@
       <c r="C146" t="s">
         <v>230</v>
       </c>
-      <c r="E146">
-        <v>16</v>
+      <c r="D146">
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1216</v>
       </c>
       <c r="F146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>16</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
         <v>1.2041199826559248</v>
       </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>660</v>
       </c>
@@ -10898,21 +12367,31 @@
       <c r="C147" t="s">
         <v>230</v>
       </c>
-      <c r="E147">
+      <c r="D147">
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G147">
         <v>4</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="5"/>
+      <c r="H147">
+        <f t="shared" si="8"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>663</v>
       </c>
@@ -10922,21 +12401,31 @@
       <c r="C148" t="s">
         <v>234</v>
       </c>
-      <c r="E148">
+      <c r="D148">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="7"/>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G148">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="5"/>
+      <c r="H148">
+        <f t="shared" si="8"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>666</v>
       </c>
@@ -10946,21 +12435,31 @@
       <c r="C149" t="s">
         <v>230</v>
       </c>
-      <c r="E149">
+      <c r="D149">
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="7"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="G149">
         <v>25</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="5"/>
+      <c r="H149">
+        <f t="shared" si="8"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>669</v>
       </c>
@@ -10970,21 +12469,31 @@
       <c r="C150" t="s">
         <v>230</v>
       </c>
-      <c r="E150">
+      <c r="D150">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="7"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="G150">
         <v>6</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="5"/>
+      <c r="H150">
+        <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>672</v>
       </c>
@@ -10994,21 +12503,31 @@
       <c r="C151" t="s">
         <v>234</v>
       </c>
-      <c r="E151">
+      <c r="D151">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="7"/>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G151">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="5"/>
+      <c r="H151">
+        <f t="shared" si="8"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>675</v>
       </c>
@@ -11018,21 +12537,31 @@
       <c r="C152" t="s">
         <v>230</v>
       </c>
-      <c r="E152">
+      <c r="D152">
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="7"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="G152">
         <v>25</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="5"/>
+      <c r="H152">
+        <f t="shared" si="8"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="G152" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>678</v>
       </c>
@@ -11042,21 +12571,31 @@
       <c r="C153" t="s">
         <v>230</v>
       </c>
-      <c r="E153">
+      <c r="D153">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="7"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="G153">
         <v>6</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="5"/>
+      <c r="H153">
+        <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>681</v>
       </c>
@@ -11066,21 +12605,31 @@
       <c r="C154" t="s">
         <v>234</v>
       </c>
-      <c r="E154">
+      <c r="D154">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="7"/>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G154">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="5"/>
+      <c r="H154">
+        <f t="shared" si="8"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>684</v>
       </c>
@@ -11090,21 +12639,31 @@
       <c r="C155" t="s">
         <v>230</v>
       </c>
-      <c r="E155">
+      <c r="D155">
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="7"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="G155">
         <v>25</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="5"/>
+      <c r="H155">
+        <f t="shared" si="8"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>687</v>
       </c>
@@ -11114,21 +12673,31 @@
       <c r="C156" t="s">
         <v>230</v>
       </c>
-      <c r="E156">
+      <c r="D156">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="7"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="G156">
         <v>6</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="5"/>
+      <c r="H156">
+        <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>690</v>
       </c>
@@ -11138,21 +12707,31 @@
       <c r="C157" t="s">
         <v>234</v>
       </c>
-      <c r="E157">
+      <c r="D157">
+        <v>3.2710663172764876</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="7"/>
+        <v>10.866247099600503</v>
+      </c>
+      <c r="G157">
         <v>1866.6647109622199</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="5"/>
+      <c r="H157">
+        <f t="shared" si="8"/>
         <v>3.2710663172764876</v>
       </c>
-      <c r="G157" t="s">
-        <v>16</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>693</v>
       </c>
@@ -11162,21 +12741,31 @@
       <c r="C158" t="s">
         <v>230</v>
       </c>
-      <c r="E158">
+      <c r="D158">
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="7"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="G158">
         <v>25</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="5"/>
+      <c r="H158">
+        <f t="shared" si="8"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>696</v>
       </c>
@@ -11186,21 +12775,31 @@
       <c r="C159" t="s">
         <v>230</v>
       </c>
-      <c r="E159">
+      <c r="D159">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="7"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="G159">
         <v>6</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="5"/>
+      <c r="H159">
+        <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>699</v>
       </c>
@@ -11210,21 +12809,31 @@
       <c r="C160" t="s">
         <v>234</v>
       </c>
-      <c r="E160">
+      <c r="D160">
+        <v>3.2568287962093603</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="7"/>
+        <v>10.818951078366062</v>
+      </c>
+      <c r="G160">
         <v>1806.4618579575499</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="5"/>
+      <c r="H160">
+        <f t="shared" si="8"/>
         <v>3.2568287962093603</v>
       </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>702</v>
       </c>
@@ -11234,21 +12843,31 @@
       <c r="C161" t="s">
         <v>230</v>
       </c>
-      <c r="E161">
+      <c r="D161">
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="7"/>
+        <v>4.584962500721157</v>
+      </c>
+      <c r="G161">
         <v>24</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="5"/>
+      <c r="H161">
+        <f t="shared" si="8"/>
         <v>1.3802112417116059</v>
       </c>
-      <c r="G161" t="s">
-        <v>16</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>705</v>
       </c>
@@ -11258,21 +12877,32 @@
       <c r="C162" t="s">
         <v>230</v>
       </c>
-      <c r="E162">
+      <c r="D162">
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="7"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="G162">
         <v>6</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="5"/>
+      <c r="H162">
+        <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G162" t="s">
-        <v>16</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
         <v>707</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14098,8 +15728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
+++ b/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Findsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DE0D9-1D00-49C1-AAEB-691C858982CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54B1E9-0B88-4246-B968-2EBC814EDA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="29025" windowWidth="5400" windowHeight="2880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1216">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -720,9 +720,6 @@
     <t>kf_R1</t>
   </si>
   <si>
-    <t>liter/millimole/second</t>
-  </si>
-  <si>
     <t>CaXPKC_cytosolic__PKC_Ca_1</t>
   </si>
   <si>
@@ -744,9 +741,6 @@
     <t>kf_R2</t>
   </si>
   <si>
-    <t>1/((millimole/liter)*second)</t>
-  </si>
-  <si>
     <t>DAGXPKC_Ca__PKC_Ca_DAG_1</t>
   </si>
   <si>
@@ -3691,6 +3685,9 @@
   </si>
   <si>
     <t>log10</t>
+  </si>
+  <si>
+    <t>liter/(millimole*second)</t>
   </si>
 </sst>
 </file>
@@ -7364,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -7372,15 +7369,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B4">
         <v>3600</v>
@@ -7410,7 +7407,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7440,10 +7437,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F2" t="s">
         <v>220</v>
@@ -7469,13 +7466,13 @@
         <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>1215</v>
       </c>
       <c r="D3">
         <v>2.7781499800708835</v>
       </c>
       <c r="E3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F3">
         <f>LOG(G3,2)</f>
@@ -7492,24 +7489,24 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
       </c>
       <c r="D4">
         <v>-0.3010299956639812</v>
       </c>
       <c r="E4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" si="1">LOG(G4,2)</f>
@@ -7526,24 +7523,24 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D5">
         <v>0.90308185746752123</v>
       </c>
       <c r="E5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -7560,24 +7557,24 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6">
         <v>0.93625228285283602</v>
       </c>
       <c r="E6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -7594,24 +7591,24 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7">
         <v>0.10397466938638814</v>
       </c>
       <c r="E7" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -7628,24 +7625,24 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>0.54439054333774783</v>
       </c>
       <c r="E8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -7662,24 +7659,24 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -7696,24 +7693,24 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10">
         <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -7730,24 +7727,24 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D11">
         <v>7.9184548483983541E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -7764,24 +7761,24 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="E12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -7798,24 +7795,24 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13">
         <v>0.3010299956639812</v>
       </c>
       <c r="E13" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -7832,24 +7829,24 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -7866,24 +7863,24 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -7900,24 +7897,24 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16">
         <v>1.6989700043360187</v>
       </c>
       <c r="E16" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -7934,24 +7931,24 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D17">
         <v>-0.92081545151601651</v>
       </c>
       <c r="E17" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -7968,24 +7965,24 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18">
         <v>-1</v>
       </c>
       <c r="E18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -8002,24 +7999,24 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D19">
         <v>-0.22185001992911629</v>
       </c>
       <c r="E19" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -8036,24 +8033,24 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20">
         <v>-1</v>
       </c>
       <c r="E20" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -8070,24 +8067,24 @@
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D21">
         <v>1.2552681862643851</v>
       </c>
       <c r="E21" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
@@ -8104,24 +8101,24 @@
         <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22">
         <v>0.3010299956639812</v>
       </c>
       <c r="E22" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
@@ -8138,24 +8135,24 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D23">
         <v>2.9999987296881581</v>
       </c>
       <c r="E23" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -8172,24 +8169,24 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24">
         <v>-1</v>
       </c>
       <c r="E24" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -8206,24 +8203,24 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D25">
         <v>0.47711998440690251</v>
       </c>
       <c r="E25" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
@@ -8240,24 +8237,24 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26">
         <v>0.6020599913279624</v>
       </c>
       <c r="E26" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
@@ -8274,24 +8271,24 @@
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27">
         <v>-0.3979400086720376</v>
       </c>
       <c r="E27" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -8308,24 +8305,24 @@
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D28">
         <v>3.7781499800708835</v>
       </c>
       <c r="E28" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
@@ -8342,24 +8339,24 @@
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29">
         <v>-1</v>
       </c>
       <c r="E29" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
@@ -8376,24 +8373,24 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30">
         <v>-0.769551078621726</v>
       </c>
       <c r="E30" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
@@ -8410,24 +8407,24 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D31">
         <v>3.4771199844069023</v>
       </c>
       <c r="E31" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
@@ -8444,24 +8441,24 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
@@ -8478,24 +8475,24 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33">
         <v>0.3979400086720376</v>
       </c>
       <c r="E33" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
@@ -8512,24 +8509,24 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34">
         <v>-0.82390874094431876</v>
       </c>
       <c r="E34" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -8546,24 +8543,24 @@
         <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D35">
         <v>4.4771199844069027</v>
       </c>
       <c r="E35" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -8580,24 +8577,24 @@
         <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
@@ -8614,24 +8611,24 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D37">
         <v>3.9999681511503717</v>
       </c>
       <c r="E37" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -8648,24 +8645,24 @@
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38">
         <v>-0.3010299956639812</v>
       </c>
       <c r="E38" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
@@ -8682,24 +8679,24 @@
         <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -8716,24 +8713,24 @@
         <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40">
         <v>-4</v>
       </c>
       <c r="E40" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
@@ -8750,24 +8747,24 @@
         <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41">
         <v>-1</v>
       </c>
       <c r="E41" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
@@ -8784,24 +8781,24 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
@@ -8818,24 +8815,24 @@
         <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D43">
         <v>3.6232493265891463</v>
       </c>
       <c r="E43" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
@@ -8852,24 +8849,24 @@
         <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44">
         <v>-0.6020599913279624</v>
       </c>
       <c r="E44" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
@@ -8886,24 +8883,24 @@
         <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45">
         <v>-2.6989700043360187</v>
       </c>
       <c r="E45" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
@@ -8920,24 +8917,24 @@
         <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46">
         <v>-3.4814860601221125</v>
       </c>
       <c r="E46" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
@@ -8954,24 +8951,24 @@
         <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E47" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
@@ -8988,24 +8985,24 @@
         <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D48">
         <v>2.698952271730878</v>
       </c>
       <c r="E48" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
@@ -9022,24 +9019,24 @@
         <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49">
         <v>-1</v>
       </c>
       <c r="E49" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
@@ -9056,24 +9053,24 @@
         <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D50">
         <v>1.3979442256511589</v>
       </c>
       <c r="E50" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
@@ -9090,24 +9087,24 @@
         <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51">
         <v>-1.7746907182741372</v>
       </c>
       <c r="E51" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
@@ -9124,24 +9121,24 @@
         <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52">
         <v>-3</v>
       </c>
       <c r="E52" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
@@ -9158,24 +9155,24 @@
         <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D53">
         <v>1.3979442256511589</v>
       </c>
       <c r="E53" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
@@ -9192,24 +9189,24 @@
         <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54">
         <v>-1.7746907182741372</v>
       </c>
       <c r="E54" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
@@ -9226,24 +9223,24 @@
         <v>16</v>
       </c>
       <c r="J54" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D55">
         <v>2.9999987296881581</v>
       </c>
       <c r="E55" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
@@ -9260,24 +9257,24 @@
         <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
@@ -9294,24 +9291,24 @@
         <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D57">
         <v>5.2552681862643853</v>
       </c>
       <c r="E57" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
@@ -9328,24 +9325,24 @@
         <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
@@ -9362,24 +9359,24 @@
         <v>16</v>
       </c>
       <c r="J58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D59">
         <v>4.0791845484839833</v>
       </c>
       <c r="E59" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
@@ -9396,24 +9393,24 @@
         <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
@@ -9430,24 +9427,24 @@
         <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61">
         <v>-1.3010299956639813</v>
       </c>
       <c r="E61" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
@@ -9464,24 +9461,24 @@
         <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D62">
         <v>-1.1549019599857431</v>
       </c>
       <c r="E62" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
@@ -9498,24 +9495,24 @@
         <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D63">
         <v>2.9776248064390378</v>
       </c>
       <c r="E63" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
@@ -9532,24 +9529,24 @@
         <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D64">
         <v>1.2041199826559248</v>
       </c>
       <c r="E64" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
@@ -9566,24 +9563,24 @@
         <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65">
         <v>0.6020599913279624</v>
       </c>
       <c r="E65" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
@@ -9600,24 +9597,24 @@
         <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D66">
         <v>3.7525523773992036</v>
       </c>
       <c r="E66" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
@@ -9634,24 +9631,24 @@
         <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67">
         <v>1.2041199826559248</v>
       </c>
       <c r="E67" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -9668,24 +9665,24 @@
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68">
         <v>0.6020599913279624</v>
       </c>
       <c r="E68" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="4">LOG(G68,2)</f>
@@ -9702,24 +9699,24 @@
         <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D69">
         <v>3.7525523773992036</v>
       </c>
       <c r="E69" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
@@ -9736,24 +9733,24 @@
         <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>1.2041199826559248</v>
       </c>
       <c r="E70" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
@@ -9770,24 +9767,24 @@
         <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>0.6020599913279624</v>
       </c>
       <c r="E71" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
@@ -9804,24 +9801,24 @@
         <v>16</v>
       </c>
       <c r="J71" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D72">
         <v>3.1047348955098659</v>
       </c>
       <c r="E72" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
@@ -9838,24 +9835,24 @@
         <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73">
         <v>1.3344537511509309</v>
       </c>
       <c r="E73" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
@@ -9872,24 +9869,24 @@
         <v>16</v>
       </c>
       <c r="J73" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74">
         <v>0.7323937598229685</v>
       </c>
       <c r="E74" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
@@ -9906,24 +9903,24 @@
         <v>16</v>
       </c>
       <c r="J74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D75">
         <v>3.4153102090803342</v>
       </c>
       <c r="E75" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
@@ -9940,24 +9937,24 @@
         <v>16</v>
       </c>
       <c r="J75" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76">
         <v>1.6450290647211425</v>
       </c>
       <c r="E76" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
@@ -9974,24 +9971,24 @@
         <v>16</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77">
         <v>1.04296907339318</v>
       </c>
       <c r="E77" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F77">
         <f t="shared" si="4"/>
@@ -10008,24 +10005,24 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D78">
         <v>3.9286436364563397</v>
       </c>
       <c r="E78" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
@@ -10042,24 +10039,24 @@
         <v>16</v>
       </c>
       <c r="J78" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79">
         <v>2.1583624920952498</v>
       </c>
       <c r="E79" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F79">
         <f t="shared" si="4"/>
@@ -10076,24 +10073,24 @@
         <v>16</v>
       </c>
       <c r="J79" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80">
         <v>1.5563025007672873</v>
       </c>
       <c r="E80" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
@@ -10110,24 +10107,24 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D81">
         <v>4.1504923860707557</v>
       </c>
       <c r="E81" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
@@ -10144,24 +10141,24 @@
         <v>16</v>
       </c>
       <c r="J81" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82">
         <v>2.3802112417116059</v>
       </c>
       <c r="E82" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
@@ -10178,24 +10175,24 @@
         <v>16</v>
       </c>
       <c r="J82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83">
         <v>1.7781512503836436</v>
       </c>
       <c r="E83" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
@@ -10212,24 +10209,24 @@
         <v>16</v>
       </c>
       <c r="J83" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B84" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D84">
         <v>4.4515223817347378</v>
       </c>
       <c r="E84" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
@@ -10246,24 +10243,24 @@
         <v>16</v>
       </c>
       <c r="J84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B85" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85">
         <v>2.6812412373755872</v>
       </c>
       <c r="E85" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
@@ -10280,24 +10277,24 @@
         <v>16</v>
       </c>
       <c r="J85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86">
         <v>2.0791812460476247</v>
       </c>
       <c r="E86" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
@@ -10314,24 +10311,24 @@
         <v>16</v>
       </c>
       <c r="J86" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D87">
         <v>3.3758016677967109</v>
       </c>
       <c r="E87" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
@@ -10348,24 +10345,24 @@
         <v>16</v>
       </c>
       <c r="J87" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88">
         <v>1.6020599913279623</v>
       </c>
       <c r="E88" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
@@ -10382,24 +10379,24 @@
         <v>16</v>
       </c>
       <c r="J88" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B89" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
@@ -10416,24 +10413,24 @@
         <v>16</v>
       </c>
       <c r="J89" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B90" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D90">
         <v>4.6556423643913893</v>
       </c>
       <c r="E90" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
@@ -10450,24 +10447,24 @@
         <v>16</v>
       </c>
       <c r="J90" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B91" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91">
         <v>2.2833012287035497</v>
       </c>
       <c r="E91" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
@@ -10484,24 +10481,24 @@
         <v>16</v>
       </c>
       <c r="J91" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D92">
         <v>1.6812412373755872</v>
       </c>
       <c r="E92" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
@@ -10518,24 +10515,24 @@
         <v>16</v>
       </c>
       <c r="J92" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D93">
         <v>3.5654657340420219</v>
       </c>
       <c r="E93" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
@@ -10552,24 +10549,24 @@
         <v>16</v>
       </c>
       <c r="J93" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B94" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94">
         <v>1.9030899869919435</v>
       </c>
       <c r="E94" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
@@ -10586,24 +10583,24 @@
         <v>16</v>
       </c>
       <c r="J94" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B95" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D95">
         <v>1.3010299956639813</v>
       </c>
       <c r="E95" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
@@ -10620,24 +10617,24 @@
         <v>16</v>
       </c>
       <c r="J95" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B96" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D96">
         <v>3.2644357383780398</v>
       </c>
       <c r="E96" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
@@ -10654,24 +10651,24 @@
         <v>16</v>
       </c>
       <c r="J96" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B97" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97">
         <v>1.6020599913279623</v>
       </c>
       <c r="E97" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
@@ -10688,24 +10685,24 @@
         <v>16</v>
       </c>
       <c r="J97" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
@@ -10722,24 +10719,24 @@
         <v>16</v>
       </c>
       <c r="J98" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B99" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D99">
         <v>4.2644357383780394</v>
       </c>
       <c r="E99" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
@@ -10756,24 +10753,24 @@
         <v>16</v>
       </c>
       <c r="J99" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D100">
         <v>1.6020599913279623</v>
       </c>
       <c r="E100" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
@@ -10790,24 +10787,24 @@
         <v>16</v>
       </c>
       <c r="J100" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
@@ -10824,24 +10821,24 @@
         <v>16</v>
       </c>
       <c r="J101" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B102" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D102">
         <v>4.1839161415585693</v>
       </c>
       <c r="E102" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
@@ -10858,24 +10855,24 @@
         <v>16</v>
       </c>
       <c r="J102" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B103" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103">
         <v>-0.22184874961635639</v>
       </c>
       <c r="E103" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
@@ -10892,24 +10889,24 @@
         <v>16</v>
       </c>
       <c r="J103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D104">
         <v>-0.82390874094431876</v>
       </c>
       <c r="E104" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
@@ -10926,24 +10923,24 @@
         <v>16</v>
       </c>
       <c r="J104" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D105">
         <v>4.1839161415585693</v>
       </c>
       <c r="E105" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
@@ -10960,24 +10957,24 @@
         <v>16</v>
       </c>
       <c r="J105" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B106" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D106">
         <v>-0.22184874961635639</v>
       </c>
       <c r="E106" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
@@ -10994,24 +10991,24 @@
         <v>16</v>
       </c>
       <c r="J106" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D107">
         <v>-0.82390874094431876</v>
       </c>
       <c r="E107" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
@@ -11028,24 +11025,24 @@
         <v>16</v>
       </c>
       <c r="J107" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B108" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D108">
         <v>3.9488470225446268</v>
       </c>
       <c r="E108" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
@@ -11062,24 +11059,24 @@
         <v>16</v>
       </c>
       <c r="J108" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B109" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109">
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E109" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
@@ -11096,24 +11093,24 @@
         <v>16</v>
       </c>
       <c r="J109" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B110" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D110">
         <v>-0.52287874528033762</v>
       </c>
       <c r="E110" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
@@ -11130,24 +11127,24 @@
         <v>16</v>
       </c>
       <c r="J110" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B111" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D111">
         <v>3.9488470225446268</v>
       </c>
       <c r="E111" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
@@ -11164,24 +11161,24 @@
         <v>16</v>
       </c>
       <c r="J111" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D112">
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E112" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
@@ -11198,24 +11195,24 @@
         <v>16</v>
       </c>
       <c r="J112" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D113">
         <v>-0.52287874528033762</v>
       </c>
       <c r="E113" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
@@ -11232,24 +11229,24 @@
         <v>16</v>
       </c>
       <c r="J113" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D114">
         <v>0.97643781680986785</v>
       </c>
       <c r="E114" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
@@ -11266,24 +11263,24 @@
         <v>16</v>
       </c>
       <c r="J114" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D115">
         <v>-1.0969100130080565</v>
       </c>
       <c r="E115" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
@@ -11300,24 +11297,24 @@
         <v>16</v>
       </c>
       <c r="J115" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B116" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D116">
         <v>-1.6989700043360187</v>
       </c>
       <c r="E116" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
@@ -11334,24 +11331,24 @@
         <v>16</v>
       </c>
       <c r="J116" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B117" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D117">
         <v>2.2710663172764876</v>
       </c>
       <c r="E117" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
@@ -11368,24 +11365,24 @@
         <v>16</v>
       </c>
       <c r="J117" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D118">
         <v>-1.0969100130080565</v>
       </c>
       <c r="E118" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
@@ -11402,24 +11399,24 @@
         <v>16</v>
       </c>
       <c r="J118" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B119" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D119">
         <v>-1.6989700043360187</v>
       </c>
       <c r="E119" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
@@ -11436,24 +11433,24 @@
         <v>16</v>
       </c>
       <c r="J119" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D120">
         <v>4.6688837502421361</v>
       </c>
       <c r="E120" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
@@ -11470,24 +11467,24 @@
         <v>16</v>
       </c>
       <c r="J120" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B121" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D121">
         <v>1.6020599913279623</v>
       </c>
       <c r="E121" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F121">
         <f t="shared" si="4"/>
@@ -11504,24 +11501,24 @@
         <v>16</v>
       </c>
       <c r="J121" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B122" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F122">
         <f t="shared" si="4"/>
@@ -11538,24 +11535,24 @@
         <v>16</v>
       </c>
       <c r="J122" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B123" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D123">
         <v>3.2710663172764876</v>
       </c>
       <c r="E123" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
@@ -11572,24 +11569,24 @@
         <v>16</v>
       </c>
       <c r="J123" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B124" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D124">
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E124" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F124">
         <f t="shared" si="4"/>
@@ -11606,24 +11603,24 @@
         <v>16</v>
       </c>
       <c r="J124" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D125">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E125" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F125">
         <f t="shared" si="4"/>
@@ -11640,24 +11637,24 @@
         <v>16</v>
       </c>
       <c r="J125" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D126">
         <v>3.4515223817347365</v>
       </c>
       <c r="E126" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
@@ -11674,24 +11671,24 @@
         <v>16</v>
       </c>
       <c r="J126" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B127" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D127">
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E127" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F127">
         <f t="shared" si="4"/>
@@ -11708,24 +11705,24 @@
         <v>16</v>
       </c>
       <c r="J127" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B128" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D128">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E128" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F128">
         <f t="shared" si="4"/>
@@ -11742,24 +11739,24 @@
         <v>16</v>
       </c>
       <c r="J128" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D129">
         <v>3.0535823730622131</v>
       </c>
       <c r="E129" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
@@ -11776,24 +11773,24 @@
         <v>16</v>
       </c>
       <c r="J129" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B130" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D130">
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E130" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F130">
         <f t="shared" si="4"/>
@@ -11810,24 +11807,24 @@
         <v>16</v>
       </c>
       <c r="J130" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B131" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D131">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E131" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F131">
         <f t="shared" si="4"/>
@@ -11844,24 +11841,24 @@
         <v>16</v>
       </c>
       <c r="J131" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B132" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D132">
         <v>3.2710663172764876</v>
       </c>
       <c r="E132" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F162" si="7">LOG(G132,2)</f>
@@ -11878,24 +11875,24 @@
         <v>16</v>
       </c>
       <c r="J132" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B133" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D133">
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E133" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
@@ -11912,24 +11909,24 @@
         <v>16</v>
       </c>
       <c r="J133" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B134" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D134">
         <v>-0.69897000433601875</v>
       </c>
       <c r="E134" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
@@ -11946,24 +11943,24 @@
         <v>16</v>
       </c>
       <c r="J134" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B135" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D135">
         <v>-1.0122377588510769</v>
       </c>
       <c r="E135" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
@@ -11980,24 +11977,24 @@
         <v>16</v>
       </c>
       <c r="J135" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
+        <v>624</v>
+      </c>
+      <c r="B136" t="s">
+        <v>625</v>
+      </c>
+      <c r="C136" t="s">
         <v>626</v>
-      </c>
-      <c r="B136" t="s">
-        <v>627</v>
-      </c>
-      <c r="C136" t="s">
-        <v>628</v>
       </c>
       <c r="D136">
         <v>1.146128035678238</v>
       </c>
       <c r="E136" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
@@ -12014,24 +12011,24 @@
         <v>16</v>
       </c>
       <c r="J136" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B137" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D137">
         <v>-1.7035209345227176</v>
       </c>
       <c r="E137" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
@@ -12048,24 +12045,24 @@
         <v>16</v>
       </c>
       <c r="J137" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C138" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D138">
         <v>1.7558748556724915</v>
       </c>
       <c r="E138" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
@@ -12082,24 +12079,24 @@
         <v>16</v>
       </c>
       <c r="J138" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B139" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D139">
         <v>3.9016280469517008</v>
       </c>
       <c r="E139" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
@@ -12116,24 +12113,24 @@
         <v>16</v>
       </c>
       <c r="J139" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B140" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D140">
         <v>0.3010299956639812</v>
       </c>
       <c r="E140" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
@@ -12150,24 +12147,24 @@
         <v>16</v>
       </c>
       <c r="J140" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B141" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D141">
         <v>-0.3010299956639812</v>
       </c>
       <c r="E141" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
@@ -12184,24 +12181,24 @@
         <v>16</v>
       </c>
       <c r="J141" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D142">
         <v>3.43373423038028</v>
       </c>
       <c r="E142" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
@@ -12218,24 +12215,24 @@
         <v>16</v>
       </c>
       <c r="J142" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B143" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D143">
         <v>1.2041199826559248</v>
       </c>
       <c r="E143" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
@@ -12252,24 +12249,24 @@
         <v>16</v>
       </c>
       <c r="J143" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B144" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D144">
         <v>0.6020599913279624</v>
       </c>
       <c r="E144" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
@@ -12286,24 +12283,24 @@
         <v>16</v>
       </c>
       <c r="J144" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B145" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D145">
         <v>3.43373423038028</v>
       </c>
       <c r="E145" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
@@ -12320,24 +12317,24 @@
         <v>16</v>
       </c>
       <c r="J145" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B146" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D146">
         <v>1.2041199826559248</v>
       </c>
       <c r="E146" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
@@ -12354,24 +12351,24 @@
         <v>16</v>
       </c>
       <c r="J146" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B147" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D147">
         <v>0.6020599913279624</v>
       </c>
       <c r="E147" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
@@ -12388,24 +12385,24 @@
         <v>16</v>
       </c>
       <c r="J147" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B148" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D148">
         <v>3.2710663172764876</v>
       </c>
       <c r="E148" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
@@ -12422,24 +12419,24 @@
         <v>16</v>
       </c>
       <c r="J148" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B149" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D149">
         <v>1.3979400086720377</v>
       </c>
       <c r="E149" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
@@ -12456,24 +12453,24 @@
         <v>16</v>
       </c>
       <c r="J149" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B150" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C150" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150">
         <v>0.77815125038364363</v>
       </c>
       <c r="E150" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F150">
         <f t="shared" si="7"/>
@@ -12490,24 +12487,24 @@
         <v>16</v>
       </c>
       <c r="J150" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B151" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D151">
         <v>3.2710663172764876</v>
       </c>
       <c r="E151" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F151">
         <f t="shared" si="7"/>
@@ -12524,24 +12521,24 @@
         <v>16</v>
       </c>
       <c r="J151" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B152" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D152">
         <v>1.3979400086720377</v>
       </c>
       <c r="E152" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F152">
         <f t="shared" si="7"/>
@@ -12558,24 +12555,24 @@
         <v>16</v>
       </c>
       <c r="J152" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B153" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C153" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D153">
         <v>0.77815125038364363</v>
       </c>
       <c r="E153" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F153">
         <f t="shared" si="7"/>
@@ -12592,24 +12589,24 @@
         <v>16</v>
       </c>
       <c r="J153" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B154" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C154" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D154">
         <v>3.2710663172764876</v>
       </c>
       <c r="E154" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F154">
         <f t="shared" si="7"/>
@@ -12626,24 +12623,24 @@
         <v>16</v>
       </c>
       <c r="J154" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B155" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D155">
         <v>1.3979400086720377</v>
       </c>
       <c r="E155" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F155">
         <f t="shared" si="7"/>
@@ -12660,24 +12657,24 @@
         <v>16</v>
       </c>
       <c r="J155" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B156" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D156">
         <v>0.77815125038364363</v>
       </c>
       <c r="E156" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F156">
         <f t="shared" si="7"/>
@@ -12694,24 +12691,24 @@
         <v>16</v>
       </c>
       <c r="J156" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B157" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C157" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D157">
         <v>3.2710663172764876</v>
       </c>
       <c r="E157" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F157">
         <f t="shared" si="7"/>
@@ -12728,24 +12725,24 @@
         <v>16</v>
       </c>
       <c r="J157" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B158" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C158" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D158">
         <v>1.3979400086720377</v>
       </c>
       <c r="E158" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F158">
         <f t="shared" si="7"/>
@@ -12762,24 +12759,24 @@
         <v>16</v>
       </c>
       <c r="J158" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B159" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C159" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D159">
         <v>0.77815125038364363</v>
       </c>
       <c r="E159" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F159">
         <f t="shared" si="7"/>
@@ -12796,24 +12793,24 @@
         <v>16</v>
       </c>
       <c r="J159" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B160" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>1215</v>
       </c>
       <c r="D160">
         <v>3.2568287962093603</v>
       </c>
       <c r="E160" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F160">
         <f t="shared" si="7"/>
@@ -12830,24 +12827,24 @@
         <v>16</v>
       </c>
       <c r="J160" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B161" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D161">
         <v>1.3802112417116059</v>
       </c>
       <c r="E161" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F161">
         <f t="shared" si="7"/>
@@ -12864,24 +12861,24 @@
         <v>16</v>
       </c>
       <c r="J161" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B162" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C162" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D162">
         <v>0.77815125038364363</v>
       </c>
       <c r="E162" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F162">
         <f t="shared" si="7"/>
@@ -12898,7 +12895,7 @@
         <v>16</v>
       </c>
       <c r="J162" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -12920,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -12931,30 +12928,30 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" t="s">
         <v>713</v>
-      </c>
-      <c r="B3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C3" t="s">
-        <v>715</v>
       </c>
       <c r="D3" t="b">
         <f>TRUE()</f>
@@ -12964,21 +12961,21 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" t="s">
         <v>718</v>
-      </c>
-      <c r="B4" t="s">
-        <v>719</v>
-      </c>
-      <c r="C4" t="s">
-        <v>720</v>
       </c>
       <c r="D4" t="b">
         <f>TRUE()</f>
@@ -12988,21 +12985,21 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" t="s">
         <v>722</v>
-      </c>
-      <c r="B5" t="s">
-        <v>723</v>
-      </c>
-      <c r="C5" t="s">
-        <v>724</v>
       </c>
       <c r="D5" t="b">
         <f>TRUE()</f>
@@ -13012,21 +13009,21 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C6" t="s">
         <v>726</v>
-      </c>
-      <c r="B6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C6" t="s">
-        <v>728</v>
       </c>
       <c r="D6" t="b">
         <f>TRUE()</f>
@@ -13036,21 +13033,21 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" t="s">
         <v>730</v>
-      </c>
-      <c r="B7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C7" t="s">
-        <v>732</v>
       </c>
       <c r="D7" t="b">
         <f>TRUE()</f>
@@ -13060,21 +13057,21 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
         <v>734</v>
-      </c>
-      <c r="B8" t="s">
-        <v>735</v>
-      </c>
-      <c r="C8" t="s">
-        <v>736</v>
       </c>
       <c r="D8" t="b">
         <f>TRUE()</f>
@@ -13084,21 +13081,21 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C9" t="s">
         <v>738</v>
-      </c>
-      <c r="B9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C9" t="s">
-        <v>740</v>
       </c>
       <c r="D9" t="b">
         <f>TRUE()</f>
@@ -13108,21 +13105,21 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" t="s">
         <v>742</v>
-      </c>
-      <c r="B10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" t="s">
-        <v>744</v>
       </c>
       <c r="D10" t="b">
         <f>TRUE()</f>
@@ -13132,21 +13129,21 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" t="s">
         <v>746</v>
-      </c>
-      <c r="B11" t="s">
-        <v>747</v>
-      </c>
-      <c r="C11" t="s">
-        <v>748</v>
       </c>
       <c r="D11" t="b">
         <f>TRUE()</f>
@@ -13156,21 +13153,21 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>748</v>
+      </c>
+      <c r="B12" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" t="s">
         <v>750</v>
-      </c>
-      <c r="B12" t="s">
-        <v>751</v>
-      </c>
-      <c r="C12" t="s">
-        <v>752</v>
       </c>
       <c r="D12" t="b">
         <f>TRUE()</f>
@@ -13180,21 +13177,21 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>752</v>
+      </c>
+      <c r="B13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C13" t="s">
         <v>754</v>
-      </c>
-      <c r="B13" t="s">
-        <v>755</v>
-      </c>
-      <c r="C13" t="s">
-        <v>756</v>
       </c>
       <c r="D13" t="b">
         <f>TRUE()</f>
@@ -13204,21 +13201,21 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C14" t="s">
         <v>758</v>
-      </c>
-      <c r="B14" t="s">
-        <v>759</v>
-      </c>
-      <c r="C14" t="s">
-        <v>760</v>
       </c>
       <c r="D14" t="b">
         <f>TRUE()</f>
@@ -13228,45 +13225,45 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>760</v>
+      </c>
+      <c r="B15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C15" t="s">
         <v>762</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>714</v>
+      </c>
+      <c r="G15" t="s">
         <v>763</v>
-      </c>
-      <c r="C15" t="s">
-        <v>764</v>
-      </c>
-      <c r="D15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>716</v>
-      </c>
-      <c r="G15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>764</v>
+      </c>
+      <c r="B16" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" t="s">
         <v>766</v>
-      </c>
-      <c r="B16" t="s">
-        <v>767</v>
-      </c>
-      <c r="C16" t="s">
-        <v>768</v>
       </c>
       <c r="D16" t="b">
         <f>TRUE()</f>
@@ -13276,45 +13273,45 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C17" t="s">
         <v>770</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>714</v>
+      </c>
+      <c r="G17" t="s">
         <v>771</v>
-      </c>
-      <c r="C17" t="s">
-        <v>772</v>
-      </c>
-      <c r="D17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>716</v>
-      </c>
-      <c r="G17" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>772</v>
+      </c>
+      <c r="B18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C18" t="s">
         <v>774</v>
-      </c>
-      <c r="B18" t="s">
-        <v>775</v>
-      </c>
-      <c r="C18" t="s">
-        <v>776</v>
       </c>
       <c r="D18" t="b">
         <f>TRUE()</f>
@@ -13324,69 +13321,69 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C19" t="s">
         <v>778</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>714</v>
+      </c>
+      <c r="G19" t="s">
         <v>779</v>
-      </c>
-      <c r="C19" t="s">
-        <v>780</v>
-      </c>
-      <c r="D19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>716</v>
-      </c>
-      <c r="G19" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>780</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
         <v>782</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>714</v>
+      </c>
+      <c r="G20" t="s">
         <v>783</v>
-      </c>
-      <c r="C20" t="s">
-        <v>784</v>
-      </c>
-      <c r="D20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>716</v>
-      </c>
-      <c r="G20" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>784</v>
+      </c>
+      <c r="B21" t="s">
+        <v>785</v>
+      </c>
+      <c r="C21" t="s">
         <v>786</v>
-      </c>
-      <c r="B21" t="s">
-        <v>787</v>
-      </c>
-      <c r="C21" t="s">
-        <v>788</v>
       </c>
       <c r="D21" t="b">
         <f>TRUE()</f>
@@ -13396,21 +13393,21 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>788</v>
+      </c>
+      <c r="B22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" t="s">
         <v>790</v>
-      </c>
-      <c r="B22" t="s">
-        <v>791</v>
-      </c>
-      <c r="C22" t="s">
-        <v>792</v>
       </c>
       <c r="D22" t="b">
         <f>TRUE()</f>
@@ -13420,117 +13417,117 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G22" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" t="s">
         <v>794</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>714</v>
+      </c>
+      <c r="G23" t="s">
         <v>795</v>
-      </c>
-      <c r="C23" t="s">
-        <v>796</v>
-      </c>
-      <c r="D23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>716</v>
-      </c>
-      <c r="G23" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" t="s">
+        <v>797</v>
+      </c>
+      <c r="C24" t="s">
         <v>798</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>714</v>
+      </c>
+      <c r="G24" t="s">
         <v>799</v>
-      </c>
-      <c r="C24" t="s">
-        <v>800</v>
-      </c>
-      <c r="D24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>716</v>
-      </c>
-      <c r="G24" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>800</v>
+      </c>
+      <c r="B25" t="s">
+        <v>801</v>
+      </c>
+      <c r="C25" t="s">
         <v>802</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>714</v>
+      </c>
+      <c r="G25" t="s">
         <v>803</v>
-      </c>
-      <c r="C25" t="s">
-        <v>804</v>
-      </c>
-      <c r="D25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>716</v>
-      </c>
-      <c r="G25" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>804</v>
+      </c>
+      <c r="B26" t="s">
+        <v>805</v>
+      </c>
+      <c r="C26" t="s">
         <v>806</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>714</v>
+      </c>
+      <c r="G26" t="s">
         <v>807</v>
-      </c>
-      <c r="C26" t="s">
-        <v>808</v>
-      </c>
-      <c r="D26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>716</v>
-      </c>
-      <c r="G26" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>808</v>
+      </c>
+      <c r="B27" t="s">
+        <v>809</v>
+      </c>
+      <c r="C27" t="s">
         <v>810</v>
-      </c>
-      <c r="B27" t="s">
-        <v>811</v>
-      </c>
-      <c r="C27" t="s">
-        <v>812</v>
       </c>
       <c r="D27" t="b">
         <f>TRUE()</f>
@@ -13540,21 +13537,21 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" t="s">
         <v>814</v>
-      </c>
-      <c r="B28" t="s">
-        <v>815</v>
-      </c>
-      <c r="C28" t="s">
-        <v>816</v>
       </c>
       <c r="D28" t="b">
         <f>TRUE()</f>
@@ -13564,45 +13561,45 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>816</v>
+      </c>
+      <c r="B29" t="s">
+        <v>817</v>
+      </c>
+      <c r="C29" t="s">
         <v>818</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>714</v>
+      </c>
+      <c r="G29" t="s">
         <v>819</v>
-      </c>
-      <c r="C29" t="s">
-        <v>820</v>
-      </c>
-      <c r="D29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>716</v>
-      </c>
-      <c r="G29" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>820</v>
+      </c>
+      <c r="B30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C30" t="s">
         <v>822</v>
-      </c>
-      <c r="B30" t="s">
-        <v>823</v>
-      </c>
-      <c r="C30" t="s">
-        <v>824</v>
       </c>
       <c r="D30" t="b">
         <f>TRUE()</f>
@@ -13612,21 +13609,21 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>824</v>
+      </c>
+      <c r="B31" t="s">
+        <v>825</v>
+      </c>
+      <c r="C31" t="s">
         <v>826</v>
-      </c>
-      <c r="B31" t="s">
-        <v>827</v>
-      </c>
-      <c r="C31" t="s">
-        <v>828</v>
       </c>
       <c r="D31" t="b">
         <f>TRUE()</f>
@@ -13636,45 +13633,45 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>828</v>
+      </c>
+      <c r="B32" t="s">
+        <v>829</v>
+      </c>
+      <c r="C32" t="s">
         <v>830</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>714</v>
+      </c>
+      <c r="G32" t="s">
         <v>831</v>
-      </c>
-      <c r="C32" t="s">
-        <v>832</v>
-      </c>
-      <c r="D32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>716</v>
-      </c>
-      <c r="G32" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>832</v>
+      </c>
+      <c r="B33" t="s">
+        <v>833</v>
+      </c>
+      <c r="C33" t="s">
         <v>834</v>
-      </c>
-      <c r="B33" t="s">
-        <v>835</v>
-      </c>
-      <c r="C33" t="s">
-        <v>836</v>
       </c>
       <c r="D33" t="b">
         <f>TRUE()</f>
@@ -13684,21 +13681,21 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G33" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>836</v>
+      </c>
+      <c r="B34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C34" t="s">
         <v>838</v>
-      </c>
-      <c r="B34" t="s">
-        <v>839</v>
-      </c>
-      <c r="C34" t="s">
-        <v>840</v>
       </c>
       <c r="D34" t="b">
         <f>TRUE()</f>
@@ -13708,21 +13705,21 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G34" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>840</v>
+      </c>
+      <c r="B35" t="s">
+        <v>841</v>
+      </c>
+      <c r="C35" t="s">
         <v>842</v>
-      </c>
-      <c r="B35" t="s">
-        <v>843</v>
-      </c>
-      <c r="C35" t="s">
-        <v>844</v>
       </c>
       <c r="D35" t="b">
         <f>TRUE()</f>
@@ -13732,21 +13729,21 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G35" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>844</v>
+      </c>
+      <c r="B36" t="s">
+        <v>845</v>
+      </c>
+      <c r="C36" t="s">
         <v>846</v>
-      </c>
-      <c r="B36" t="s">
-        <v>847</v>
-      </c>
-      <c r="C36" t="s">
-        <v>848</v>
       </c>
       <c r="D36" t="b">
         <f>TRUE()</f>
@@ -13756,69 +13753,69 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G36" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>848</v>
+      </c>
+      <c r="B37" t="s">
+        <v>849</v>
+      </c>
+      <c r="C37" t="s">
         <v>850</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>714</v>
+      </c>
+      <c r="G37" t="s">
         <v>851</v>
-      </c>
-      <c r="C37" t="s">
-        <v>852</v>
-      </c>
-      <c r="D37" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>716</v>
-      </c>
-      <c r="G37" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>852</v>
+      </c>
+      <c r="B38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C38" t="s">
         <v>854</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>714</v>
+      </c>
+      <c r="G38" t="s">
         <v>855</v>
-      </c>
-      <c r="C38" t="s">
-        <v>856</v>
-      </c>
-      <c r="D38" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>716</v>
-      </c>
-      <c r="G38" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>856</v>
+      </c>
+      <c r="B39" t="s">
+        <v>857</v>
+      </c>
+      <c r="C39" t="s">
         <v>858</v>
-      </c>
-      <c r="B39" t="s">
-        <v>859</v>
-      </c>
-      <c r="C39" t="s">
-        <v>860</v>
       </c>
       <c r="D39" t="b">
         <f>TRUE()</f>
@@ -13828,45 +13825,45 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>860</v>
+      </c>
+      <c r="B40" t="s">
+        <v>861</v>
+      </c>
+      <c r="C40" t="s">
         <v>862</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>714</v>
+      </c>
+      <c r="G40" t="s">
         <v>863</v>
-      </c>
-      <c r="C40" t="s">
-        <v>864</v>
-      </c>
-      <c r="D40" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>716</v>
-      </c>
-      <c r="G40" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>864</v>
+      </c>
+      <c r="B41" t="s">
+        <v>865</v>
+      </c>
+      <c r="C41" t="s">
         <v>866</v>
-      </c>
-      <c r="B41" t="s">
-        <v>867</v>
-      </c>
-      <c r="C41" t="s">
-        <v>868</v>
       </c>
       <c r="D41" t="b">
         <f>TRUE()</f>
@@ -13876,45 +13873,45 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G41" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>868</v>
+      </c>
+      <c r="B42" t="s">
+        <v>869</v>
+      </c>
+      <c r="C42" t="s">
         <v>870</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>714</v>
+      </c>
+      <c r="G42" t="s">
         <v>871</v>
-      </c>
-      <c r="C42" t="s">
-        <v>872</v>
-      </c>
-      <c r="D42" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>716</v>
-      </c>
-      <c r="G42" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>872</v>
+      </c>
+      <c r="B43" t="s">
+        <v>873</v>
+      </c>
+      <c r="C43" t="s">
         <v>874</v>
-      </c>
-      <c r="B43" t="s">
-        <v>875</v>
-      </c>
-      <c r="C43" t="s">
-        <v>876</v>
       </c>
       <c r="D43" t="b">
         <f>TRUE()</f>
@@ -13924,45 +13921,45 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G43" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>876</v>
+      </c>
+      <c r="B44" t="s">
+        <v>877</v>
+      </c>
+      <c r="C44" t="s">
         <v>878</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>714</v>
+      </c>
+      <c r="G44" t="s">
         <v>879</v>
-      </c>
-      <c r="C44" t="s">
-        <v>880</v>
-      </c>
-      <c r="D44" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>716</v>
-      </c>
-      <c r="G44" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>880</v>
+      </c>
+      <c r="B45" t="s">
+        <v>881</v>
+      </c>
+      <c r="C45" t="s">
         <v>882</v>
-      </c>
-      <c r="B45" t="s">
-        <v>883</v>
-      </c>
-      <c r="C45" t="s">
-        <v>884</v>
       </c>
       <c r="D45" t="b">
         <f>TRUE()</f>
@@ -13972,45 +13969,45 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G45" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>884</v>
+      </c>
+      <c r="B46" t="s">
+        <v>885</v>
+      </c>
+      <c r="C46" t="s">
         <v>886</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>714</v>
+      </c>
+      <c r="G46" t="s">
         <v>887</v>
-      </c>
-      <c r="C46" t="s">
-        <v>888</v>
-      </c>
-      <c r="D46" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>716</v>
-      </c>
-      <c r="G46" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>888</v>
+      </c>
+      <c r="B47" t="s">
+        <v>889</v>
+      </c>
+      <c r="C47" t="s">
         <v>890</v>
-      </c>
-      <c r="B47" t="s">
-        <v>891</v>
-      </c>
-      <c r="C47" t="s">
-        <v>892</v>
       </c>
       <c r="D47" t="b">
         <f>TRUE()</f>
@@ -14020,45 +14017,45 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G47" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>892</v>
+      </c>
+      <c r="B48" t="s">
+        <v>893</v>
+      </c>
+      <c r="C48" t="s">
         <v>894</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>714</v>
+      </c>
+      <c r="G48" t="s">
         <v>895</v>
-      </c>
-      <c r="C48" t="s">
-        <v>896</v>
-      </c>
-      <c r="D48" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>716</v>
-      </c>
-      <c r="G48" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>896</v>
+      </c>
+      <c r="B49" t="s">
+        <v>897</v>
+      </c>
+      <c r="C49" t="s">
         <v>898</v>
-      </c>
-      <c r="B49" t="s">
-        <v>899</v>
-      </c>
-      <c r="C49" t="s">
-        <v>900</v>
       </c>
       <c r="D49" t="b">
         <f>TRUE()</f>
@@ -14068,45 +14065,45 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>900</v>
+      </c>
+      <c r="B50" t="s">
+        <v>901</v>
+      </c>
+      <c r="C50" t="s">
         <v>902</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>714</v>
+      </c>
+      <c r="G50" t="s">
         <v>903</v>
-      </c>
-      <c r="C50" t="s">
-        <v>904</v>
-      </c>
-      <c r="D50" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>716</v>
-      </c>
-      <c r="G50" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>904</v>
+      </c>
+      <c r="B51" t="s">
+        <v>905</v>
+      </c>
+      <c r="C51" t="s">
         <v>906</v>
-      </c>
-      <c r="B51" t="s">
-        <v>907</v>
-      </c>
-      <c r="C51" t="s">
-        <v>908</v>
       </c>
       <c r="D51" t="b">
         <f>TRUE()</f>
@@ -14116,45 +14113,45 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G51" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>908</v>
+      </c>
+      <c r="B52" t="s">
+        <v>909</v>
+      </c>
+      <c r="C52" t="s">
         <v>910</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>714</v>
+      </c>
+      <c r="G52" t="s">
         <v>911</v>
-      </c>
-      <c r="C52" t="s">
-        <v>912</v>
-      </c>
-      <c r="D52" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>716</v>
-      </c>
-      <c r="G52" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>912</v>
+      </c>
+      <c r="B53" t="s">
+        <v>913</v>
+      </c>
+      <c r="C53" t="s">
         <v>914</v>
-      </c>
-      <c r="B53" t="s">
-        <v>915</v>
-      </c>
-      <c r="C53" t="s">
-        <v>916</v>
       </c>
       <c r="D53" t="b">
         <f>TRUE()</f>
@@ -14164,45 +14161,45 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>916</v>
+      </c>
+      <c r="B54" t="s">
+        <v>917</v>
+      </c>
+      <c r="C54" t="s">
         <v>918</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>714</v>
+      </c>
+      <c r="G54" t="s">
         <v>919</v>
-      </c>
-      <c r="C54" t="s">
-        <v>920</v>
-      </c>
-      <c r="D54" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>716</v>
-      </c>
-      <c r="G54" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>920</v>
+      </c>
+      <c r="B55" t="s">
+        <v>921</v>
+      </c>
+      <c r="C55" t="s">
         <v>922</v>
-      </c>
-      <c r="B55" t="s">
-        <v>923</v>
-      </c>
-      <c r="C55" t="s">
-        <v>924</v>
       </c>
       <c r="D55" t="b">
         <f>TRUE()</f>
@@ -14212,45 +14209,45 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" t="s">
+        <v>925</v>
+      </c>
+      <c r="C56" t="s">
         <v>926</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>714</v>
+      </c>
+      <c r="G56" t="s">
         <v>927</v>
-      </c>
-      <c r="C56" t="s">
-        <v>928</v>
-      </c>
-      <c r="D56" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>716</v>
-      </c>
-      <c r="G56" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>928</v>
+      </c>
+      <c r="B57" t="s">
+        <v>929</v>
+      </c>
+      <c r="C57" t="s">
         <v>930</v>
-      </c>
-      <c r="B57" t="s">
-        <v>931</v>
-      </c>
-      <c r="C57" t="s">
-        <v>932</v>
       </c>
       <c r="D57" t="b">
         <f>TRUE()</f>
@@ -14260,45 +14257,45 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G57" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>932</v>
+      </c>
+      <c r="B58" t="s">
+        <v>933</v>
+      </c>
+      <c r="C58" t="s">
         <v>934</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>714</v>
+      </c>
+      <c r="G58" t="s">
         <v>935</v>
-      </c>
-      <c r="C58" t="s">
-        <v>936</v>
-      </c>
-      <c r="D58" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>716</v>
-      </c>
-      <c r="G58" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>936</v>
+      </c>
+      <c r="B59" t="s">
+        <v>937</v>
+      </c>
+      <c r="C59" t="s">
         <v>938</v>
-      </c>
-      <c r="B59" t="s">
-        <v>939</v>
-      </c>
-      <c r="C59" t="s">
-        <v>940</v>
       </c>
       <c r="D59" t="b">
         <f>TRUE()</f>
@@ -14308,45 +14305,45 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G59" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>940</v>
+      </c>
+      <c r="B60" t="s">
+        <v>941</v>
+      </c>
+      <c r="C60" t="s">
         <v>942</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>714</v>
+      </c>
+      <c r="G60" t="s">
         <v>943</v>
-      </c>
-      <c r="C60" t="s">
-        <v>944</v>
-      </c>
-      <c r="D60" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>716</v>
-      </c>
-      <c r="G60" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
+        <v>944</v>
+      </c>
+      <c r="B61" t="s">
+        <v>945</v>
+      </c>
+      <c r="C61" t="s">
         <v>946</v>
-      </c>
-      <c r="B61" t="s">
-        <v>947</v>
-      </c>
-      <c r="C61" t="s">
-        <v>948</v>
       </c>
       <c r="D61" t="b">
         <f>TRUE()</f>
@@ -14356,45 +14353,45 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G61" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>948</v>
+      </c>
+      <c r="B62" t="s">
+        <v>949</v>
+      </c>
+      <c r="C62" t="s">
         <v>950</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>714</v>
+      </c>
+      <c r="G62" t="s">
         <v>951</v>
-      </c>
-      <c r="C62" t="s">
-        <v>952</v>
-      </c>
-      <c r="D62" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>716</v>
-      </c>
-      <c r="G62" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>952</v>
+      </c>
+      <c r="B63" t="s">
+        <v>953</v>
+      </c>
+      <c r="C63" t="s">
         <v>954</v>
-      </c>
-      <c r="B63" t="s">
-        <v>955</v>
-      </c>
-      <c r="C63" t="s">
-        <v>956</v>
       </c>
       <c r="D63" t="b">
         <f>TRUE()</f>
@@ -14404,45 +14401,45 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G63" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
+        <v>956</v>
+      </c>
+      <c r="B64" t="s">
+        <v>957</v>
+      </c>
+      <c r="C64" t="s">
         <v>958</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>714</v>
+      </c>
+      <c r="G64" t="s">
         <v>959</v>
-      </c>
-      <c r="C64" t="s">
-        <v>960</v>
-      </c>
-      <c r="D64" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" t="s">
-        <v>716</v>
-      </c>
-      <c r="G64" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>960</v>
+      </c>
+      <c r="B65" t="s">
+        <v>961</v>
+      </c>
+      <c r="C65" t="s">
         <v>962</v>
-      </c>
-      <c r="B65" t="s">
-        <v>963</v>
-      </c>
-      <c r="C65" t="s">
-        <v>964</v>
       </c>
       <c r="D65" t="b">
         <f>TRUE()</f>
@@ -14452,45 +14449,45 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G65" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>964</v>
+      </c>
+      <c r="B66" t="s">
+        <v>965</v>
+      </c>
+      <c r="C66" t="s">
         <v>966</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>714</v>
+      </c>
+      <c r="G66" t="s">
         <v>967</v>
-      </c>
-      <c r="C66" t="s">
-        <v>968</v>
-      </c>
-      <c r="D66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>716</v>
-      </c>
-      <c r="G66" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>968</v>
+      </c>
+      <c r="B67" t="s">
+        <v>969</v>
+      </c>
+      <c r="C67" t="s">
         <v>970</v>
-      </c>
-      <c r="B67" t="s">
-        <v>971</v>
-      </c>
-      <c r="C67" t="s">
-        <v>972</v>
       </c>
       <c r="D67" t="b">
         <f>TRUE()</f>
@@ -14500,45 +14497,45 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G67" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>972</v>
+      </c>
+      <c r="B68" t="s">
+        <v>973</v>
+      </c>
+      <c r="C68" t="s">
         <v>974</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>714</v>
+      </c>
+      <c r="G68" t="s">
         <v>975</v>
-      </c>
-      <c r="C68" t="s">
-        <v>976</v>
-      </c>
-      <c r="D68" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>716</v>
-      </c>
-      <c r="G68" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>976</v>
+      </c>
+      <c r="B69" t="s">
+        <v>977</v>
+      </c>
+      <c r="C69" t="s">
         <v>978</v>
-      </c>
-      <c r="B69" t="s">
-        <v>979</v>
-      </c>
-      <c r="C69" t="s">
-        <v>980</v>
       </c>
       <c r="D69" t="b">
         <f>TRUE()</f>
@@ -14548,45 +14545,45 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G69" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
+        <v>980</v>
+      </c>
+      <c r="B70" t="s">
+        <v>981</v>
+      </c>
+      <c r="C70" t="s">
         <v>982</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>714</v>
+      </c>
+      <c r="G70" t="s">
         <v>983</v>
-      </c>
-      <c r="C70" t="s">
-        <v>984</v>
-      </c>
-      <c r="D70" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>716</v>
-      </c>
-      <c r="G70" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
+        <v>984</v>
+      </c>
+      <c r="B71" t="s">
+        <v>985</v>
+      </c>
+      <c r="C71" t="s">
         <v>986</v>
-      </c>
-      <c r="B71" t="s">
-        <v>987</v>
-      </c>
-      <c r="C71" t="s">
-        <v>988</v>
       </c>
       <c r="D71" t="b">
         <f>TRUE()</f>
@@ -14596,45 +14593,45 @@
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G71" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>988</v>
+      </c>
+      <c r="B72" t="s">
+        <v>989</v>
+      </c>
+      <c r="C72" t="s">
         <v>990</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>714</v>
+      </c>
+      <c r="G72" t="s">
         <v>991</v>
-      </c>
-      <c r="C72" t="s">
-        <v>992</v>
-      </c>
-      <c r="D72" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>716</v>
-      </c>
-      <c r="G72" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>992</v>
+      </c>
+      <c r="B73" t="s">
+        <v>993</v>
+      </c>
+      <c r="C73" t="s">
         <v>994</v>
-      </c>
-      <c r="B73" t="s">
-        <v>995</v>
-      </c>
-      <c r="C73" t="s">
-        <v>996</v>
       </c>
       <c r="D73" t="b">
         <f>TRUE()</f>
@@ -14644,45 +14641,45 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G73" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
+        <v>996</v>
+      </c>
+      <c r="B74" t="s">
+        <v>997</v>
+      </c>
+      <c r="C74" t="s">
         <v>998</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>714</v>
+      </c>
+      <c r="G74" t="s">
         <v>999</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D74" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>716</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C75" t="s">
         <v>1002</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1004</v>
       </c>
       <c r="D75" t="b">
         <f>TRUE()</f>
@@ -14692,45 +14689,45 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G75" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C76" t="s">
         <v>1006</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>714</v>
+      </c>
+      <c r="G76" t="s">
         <v>1007</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D76" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>716</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C77" t="s">
         <v>1010</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1012</v>
       </c>
       <c r="D77" t="b">
         <f>TRUE()</f>
@@ -14740,45 +14737,45 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G77" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C78" t="s">
         <v>1014</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>714</v>
+      </c>
+      <c r="G78" t="s">
         <v>1015</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D78" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>716</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C79" t="s">
         <v>1018</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1020</v>
       </c>
       <c r="D79" t="b">
         <f>TRUE()</f>
@@ -14788,45 +14785,45 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G79" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C80" t="s">
         <v>1022</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>714</v>
+      </c>
+      <c r="G80" t="s">
         <v>1023</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D80" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>716</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C81" t="s">
         <v>1026</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1028</v>
       </c>
       <c r="D81" t="b">
         <f>TRUE()</f>
@@ -14836,45 +14833,45 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G81" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C82" t="s">
         <v>1030</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>714</v>
+      </c>
+      <c r="G82" t="s">
         <v>1031</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D82" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>716</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C83" t="s">
         <v>1034</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1036</v>
       </c>
       <c r="D83" t="b">
         <f>TRUE()</f>
@@ -14884,45 +14881,45 @@
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G83" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C84" t="s">
         <v>1038</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>714</v>
+      </c>
+      <c r="G84" t="s">
         <v>1039</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D84" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>716</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C85" t="s">
         <v>1042</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1044</v>
       </c>
       <c r="D85" t="b">
         <f>TRUE()</f>
@@ -14932,45 +14929,45 @@
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G85" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C86" t="s">
         <v>1046</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>714</v>
+      </c>
+      <c r="G86" t="s">
         <v>1047</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D86" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>716</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C87" t="s">
         <v>1050</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1052</v>
       </c>
       <c r="D87" t="b">
         <f>TRUE()</f>
@@ -14980,21 +14977,21 @@
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G87" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C88" t="s">
         <v>1055</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1057</v>
       </c>
       <c r="D88" t="b">
         <f>TRUE()</f>
@@ -15004,21 +15001,21 @@
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G88" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C89" t="s">
         <v>1059</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1061</v>
       </c>
       <c r="D89" t="b">
         <f>TRUE()</f>
@@ -15028,45 +15025,45 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G89" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C90" t="s">
         <v>1063</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>714</v>
+      </c>
+      <c r="G90" t="s">
         <v>1064</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D90" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>716</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C91" t="s">
         <v>1067</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1069</v>
       </c>
       <c r="D91" t="b">
         <f>TRUE()</f>
@@ -15076,45 +15073,45 @@
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G91" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C92" t="s">
         <v>1071</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>714</v>
+      </c>
+      <c r="G92" t="s">
         <v>1072</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D92" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" t="s">
-        <v>716</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C93" t="s">
         <v>1075</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1077</v>
       </c>
       <c r="D93" t="b">
         <f>TRUE()</f>
@@ -15124,45 +15121,45 @@
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G93" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C94" t="s">
         <v>1079</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>714</v>
+      </c>
+      <c r="G94" t="s">
         <v>1080</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D94" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
-        <v>716</v>
-      </c>
-      <c r="G94" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C95" t="s">
         <v>1083</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1085</v>
       </c>
       <c r="D95" t="b">
         <f>TRUE()</f>
@@ -15172,45 +15169,45 @@
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G95" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C96" t="s">
         <v>1087</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>714</v>
+      </c>
+      <c r="G96" t="s">
         <v>1088</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D96" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" t="s">
-        <v>716</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C97" t="s">
         <v>1091</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1093</v>
       </c>
       <c r="D97" t="b">
         <f>TRUE()</f>
@@ -15220,45 +15217,45 @@
         <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G97" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C98" t="s">
         <v>1095</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>714</v>
+      </c>
+      <c r="G98" t="s">
         <v>1096</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D98" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" t="s">
-        <v>716</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C99" t="s">
         <v>1099</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1101</v>
       </c>
       <c r="D99" t="b">
         <f>TRUE()</f>
@@ -15268,45 +15265,45 @@
         <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G99" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C100" t="s">
         <v>1103</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>714</v>
+      </c>
+      <c r="G100" t="s">
         <v>1104</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D100" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" t="s">
-        <v>716</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C101" t="s">
         <v>1107</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1109</v>
       </c>
       <c r="D101" t="b">
         <f>TRUE()</f>
@@ -15316,45 +15313,45 @@
         <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G101" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C102" t="s">
         <v>1111</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>714</v>
+      </c>
+      <c r="G102" t="s">
         <v>1112</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D102" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
-        <v>716</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C103" t="s">
         <v>1115</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1117</v>
       </c>
       <c r="D103" t="b">
         <f>TRUE()</f>
@@ -15364,34 +15361,34 @@
         <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G103" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C104" t="s">
         <v>1119</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>714</v>
+      </c>
+      <c r="G104" t="s">
         <v>1120</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D104" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" t="s">
-        <v>716</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -15412,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -15426,46 +15423,46 @@
         <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D9" si="0">_xlfn.CONCAT("SD_",A3)</f>
         <v>SD_Y0</v>
       </c>
       <c r="E3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15475,28 +15472,28 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y1</v>
       </c>
       <c r="E4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15511,23 +15508,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y2</v>
       </c>
       <c r="E5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15542,23 +15539,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y3</v>
       </c>
       <c r="E6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15573,23 +15570,23 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B7" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y4</v>
       </c>
       <c r="E7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H7" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15604,23 +15601,23 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y5</v>
       </c>
       <c r="E8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15635,23 +15632,23 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>SD_Y6</v>
       </c>
       <c r="E9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -15661,7 +15658,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -15682,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -15693,7 +15690,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -15704,13 +15701,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -15739,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -15750,114 +15747,114 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G2" t="s">
         <v>1151</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>1152</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>1153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>1154</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>1155</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>1156</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>1157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>1158</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>1159</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>1160</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>1161</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>1162</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>1163</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>1164</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>1165</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>1166</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>1167</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>1168</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>1169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>1170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>1171</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>1172</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1174</v>
       </c>
       <c r="AC2" t="s">
         <v>11</v>
       </c>
       <c r="AD2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AF2" t="s">
         <v>1175</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>1176</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D3" t="s">
         <v>1179</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F3" t="s">
         <v>1180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1182</v>
       </c>
       <c r="G3">
         <v>2.0000000000063099E-5</v>
@@ -15933,24 +15930,24 @@
         <v>10000</v>
       </c>
       <c r="AG3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F4" t="s">
         <v>1184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1186</v>
       </c>
       <c r="G4">
         <v>2.0000000000063099E-5</v>
@@ -16026,7 +16023,7 @@
         <v>40000</v>
       </c>
       <c r="AG4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -16047,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -16055,18 +16052,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D2" t="s">
         <v>1188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B3">
         <v>2100</v>
@@ -16080,7 +16077,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B4">
         <v>2400</v>
@@ -16094,7 +16091,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B5">
         <v>3900</v>
@@ -16108,7 +16105,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B6">
         <v>5700</v>
@@ -16122,7 +16119,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B7">
         <v>9300</v>
@@ -16152,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -16160,15 +16157,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -16179,7 +16176,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -16206,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -16214,18 +16211,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B3">
         <v>3600</v>
@@ -16239,7 +16236,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B4">
         <v>3900</v>
@@ -16253,7 +16250,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B5">
         <v>5400</v>
@@ -16267,7 +16264,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B6">
         <v>7200</v>
@@ -16281,7 +16278,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B7">
         <v>14400</v>
@@ -16295,7 +16292,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B8">
         <v>36000</v>

--- a/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
+++ b/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Findsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54B1E9-0B88-4246-B968-2EBC814EDA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E7A6D-6A6D-4D63-803C-80DFECEA9283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="26700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compound" sheetId="1" r:id="rId1"/>
-    <sheet name="Parameter" sheetId="2" r:id="rId2"/>
-    <sheet name="Reaction" sheetId="3" r:id="rId3"/>
-    <sheet name="Output" sheetId="4" r:id="rId4"/>
-    <sheet name="Expression" sheetId="5" r:id="rId5"/>
-    <sheet name="Experiments" sheetId="6" r:id="rId6"/>
-    <sheet name="E0" sheetId="7" r:id="rId7"/>
-    <sheet name="E0I" sheetId="8" r:id="rId8"/>
-    <sheet name="E1" sheetId="9" r:id="rId9"/>
-    <sheet name="E1I" sheetId="10" r:id="rId10"/>
+    <sheet name="Compartment" sheetId="11" r:id="rId1"/>
+    <sheet name="Compound" sheetId="1" r:id="rId2"/>
+    <sheet name="Parameter" sheetId="2" r:id="rId3"/>
+    <sheet name="Reaction" sheetId="3" r:id="rId4"/>
+    <sheet name="Output" sheetId="4" r:id="rId5"/>
+    <sheet name="Expression" sheetId="5" r:id="rId6"/>
+    <sheet name="Experiments" sheetId="6" r:id="rId7"/>
+    <sheet name="E0" sheetId="7" r:id="rId8"/>
+    <sheet name="E0I" sheetId="8" r:id="rId9"/>
+    <sheet name="E1" sheetId="9" r:id="rId10"/>
+    <sheet name="E1I" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="1220">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -3688,6 +3689,18 @@
   </si>
   <si>
     <t>liter/(millimole*second)</t>
+  </si>
+  <si>
+    <t>Comp1</t>
+  </si>
+  <si>
+    <t>!Size</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='Compartment' TableTitle='SBTAB_Findsim Compound' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>femtoliter</t>
   </si>
 </sst>
 </file>
@@ -4032,3315 +4045,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A01AC-D3B1-48E9-BD0D-1079AB636080}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1186</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>1202</v>
+      </c>
+      <c r="B3">
+        <v>3600</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>1203</v>
+      </c>
+      <c r="B4">
+        <v>3900</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>1204</v>
+      </c>
+      <c r="B5">
+        <v>5400</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>1205</v>
+      </c>
+      <c r="B6">
+        <v>7200</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>1206</v>
+      </c>
+      <c r="B7">
+        <v>14400</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>1207</v>
+      </c>
+      <c r="B8">
+        <v>36000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2.0000000000063099E-5</v>
-      </c>
-      <c r="E8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1E-3</v>
-      </c>
-      <c r="E13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3.99999999999685E-4</v>
-      </c>
-      <c r="E15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>3.0000791452212499E-2</v>
-      </c>
-      <c r="E20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>7.9999999999936903E-4</v>
-      </c>
-      <c r="E24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>7.3000395726099899E-4</v>
-      </c>
-      <c r="E31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>6.9999999999905398E-3</v>
-      </c>
-      <c r="E32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>2.0000000000063099E-4</v>
-      </c>
-      <c r="E34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1.8000791452300801E-4</v>
-      </c>
-      <c r="E36" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>3.6000000000050499E-4</v>
-      </c>
-      <c r="E37" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F38" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>1E-4</v>
-      </c>
-      <c r="E44" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E47" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49">
-        <v>2.0000000000063099E-5</v>
-      </c>
-      <c r="E49" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F50" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
-        <v>1.6666402849294001E-4</v>
-      </c>
-      <c r="E52" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G52" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F55" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F56" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>5.0000791452275604E-4</v>
-      </c>
-      <c r="E57" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60">
-        <v>1E-3</v>
-      </c>
-      <c r="E60" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F61" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F62" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63">
-        <v>1E-4</v>
-      </c>
-      <c r="E63" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F63" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F64" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65">
-        <v>8.2000791452250296E-4</v>
-      </c>
-      <c r="E65" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F65" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F68" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G68" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69">
-        <v>7.0002374356889805E-7</v>
-      </c>
-      <c r="E69" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F69" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G69" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70">
-        <v>2.0000000000063099E-5</v>
-      </c>
-      <c r="E70" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F70" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G70" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71">
-        <v>2.6000791452294498E-4</v>
-      </c>
-      <c r="E71" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F71" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G71" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72">
-        <v>7.9999999999936906E-5</v>
-      </c>
-      <c r="E72" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F72" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F73" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G73" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F74" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G74" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F75" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G75" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F76" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G76" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G77" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F78" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G78" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F80" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F81" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F82" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F83" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F84" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G84" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F85" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G85" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F86" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B87" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F87" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F88" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F89" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G89" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F90" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F91" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F92" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G92" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F93" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G93" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>197</v>
-      </c>
-      <c r="B94" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F94" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G94" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F95" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F96" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F97" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F98" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G98" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F99" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G99" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F100" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G100" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>211</v>
-      </c>
-      <c r="B101" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F101" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G101" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F102" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G102" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F103" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G103" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F104" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G104" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" t="s">
-        <v>16</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7348,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7403,11 +4273,3330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>2.0000000000063099E-5</v>
+      </c>
+      <c r="E8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3.99999999999685E-4</v>
+      </c>
+      <c r="E15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3.0000791452212499E-2</v>
+      </c>
+      <c r="E20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>7.9999999999936903E-4</v>
+      </c>
+      <c r="E24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>7.3000395726099899E-4</v>
+      </c>
+      <c r="E31" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>6.9999999999905398E-3</v>
+      </c>
+      <c r="E32" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>2.0000000000063099E-4</v>
+      </c>
+      <c r="E34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>1.8000791452300801E-4</v>
+      </c>
+      <c r="E36" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>3.6000000000050499E-4</v>
+      </c>
+      <c r="E37" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>1E-4</v>
+      </c>
+      <c r="E44" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E47" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>2.0000000000063099E-5</v>
+      </c>
+      <c r="E49" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>1.6666402849294001E-4</v>
+      </c>
+      <c r="E52" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>5.0000791452275604E-4</v>
+      </c>
+      <c r="E57" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>1E-3</v>
+      </c>
+      <c r="E60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>1E-4</v>
+      </c>
+      <c r="E63" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>8.2000791452250296E-4</v>
+      </c>
+      <c r="E65" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>7.0002374356889805E-7</v>
+      </c>
+      <c r="E69" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>2.0000000000063099E-5</v>
+      </c>
+      <c r="E70" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>2.6000791452294498E-4</v>
+      </c>
+      <c r="E71" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>7.9999999999936906E-5</v>
+      </c>
+      <c r="E72" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12904,7 +13093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
@@ -15396,7 +15585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -15666,7 +15855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -15721,7 +15910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
@@ -16031,7 +16220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -16136,7 +16325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -16188,123 +16377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B3">
-        <v>3600</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B4">
-        <v>3900</v>
-      </c>
-      <c r="C4">
-        <v>2.5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B5">
-        <v>5400</v>
-      </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B6">
-        <v>7200</v>
-      </c>
-      <c r="C6">
-        <v>1.3</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B7">
-        <v>14400</v>
-      </c>
-      <c r="C7">
-        <v>1.2</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B8">
-        <v>36000</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
+++ b/Matlab/Model/Model_Findsim/SBTAB_Findsim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Findsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C9A8E-7A77-4812-AE97-25F13B4DDEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC12B0-84E6-4AFE-9BB5-97A5E4B2152E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="27045" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1220">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -3425,42 +3425,9 @@
     <t>normal</t>
   </si>
   <si>
-    <t>(MAPK_p+MAPK_p_p+MAPK_p_p_cplx+MAPK_p_p_feedback_cplx)</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>MAPK_out</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>MAPK_p_out</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>MAPK_p_p_out</t>
-  </si>
-  <si>
-    <t>Y4</t>
-  </si>
-  <si>
-    <t>MAPK_p_p_cplx_out</t>
-  </si>
-  <si>
-    <t>Y5</t>
-  </si>
-  <si>
-    <t>MAPK_p_p_feedback_cplx_out</t>
-  </si>
-  <si>
-    <t>Y6</t>
-  </si>
-  <si>
     <t>pERK1_2_ratio2</t>
   </si>
   <si>
@@ -3560,178 +3527,181 @@
     <t>!Sim_Time</t>
   </si>
   <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>EE0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>EE1</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E0' TableTitle='SBTAB_Findsim E0' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>!Time</t>
+  </si>
+  <si>
+    <t>&gt;Y0</t>
+  </si>
+  <si>
+    <t>SD_Y0</t>
+  </si>
+  <si>
+    <t>E0T0</t>
+  </si>
+  <si>
+    <t>E0T1</t>
+  </si>
+  <si>
+    <t>E0T2</t>
+  </si>
+  <si>
+    <t>E0T3</t>
+  </si>
+  <si>
+    <t>E0T4</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E0I' TableTitle='SBTAB_Findsim E0I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>!Input_Time_S51</t>
+  </si>
+  <si>
+    <t>&gt;S51</t>
+  </si>
+  <si>
+    <t>E0IT0</t>
+  </si>
+  <si>
+    <t>E0IT1</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E1' TableTitle='SBTAB_Findsim E1' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>E1T0</t>
+  </si>
+  <si>
+    <t>E1T1</t>
+  </si>
+  <si>
+    <t>E1T2</t>
+  </si>
+  <si>
+    <t>E1T3</t>
+  </si>
+  <si>
+    <t>E1T4</t>
+  </si>
+  <si>
+    <t>E1T5</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E1I' TableTitle='SBTAB_Findsim E1I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>E1IT0</t>
+  </si>
+  <si>
+    <t>E1IT1</t>
+  </si>
+  <si>
+    <t>!DefaultValue</t>
+  </si>
+  <si>
+    <t>!Scale</t>
+  </si>
+  <si>
+    <t>log10</t>
+  </si>
+  <si>
+    <t>!Size</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='Compartment' TableTitle='SBTAB_Findsim Compound' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>TableName='Defaults' TableType='Quantity' TableTitle='Default units for this model' SBtabVersion='1.0' Document='SBTAB_Findsim'</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>um2</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>%S11</t>
+  </si>
+  <si>
+    <t>micromole/liter</t>
+  </si>
+  <si>
+    <t>liter/(micromole*second)</t>
+  </si>
+  <si>
+    <t>micromole/litre</t>
+  </si>
+  <si>
+    <t>umol</t>
+  </si>
+  <si>
     <t>!Normalize</t>
   </si>
   <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>Experiment 1</t>
-  </si>
-  <si>
-    <t>Time Series</t>
-  </si>
-  <si>
-    <t>EE0</t>
-  </si>
-  <si>
     <t>Max_Y0</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Experiment 2</t>
-  </si>
-  <si>
-    <t>EE1</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E0' TableTitle='SBTAB_Findsim E0' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>!Time</t>
-  </si>
-  <si>
-    <t>&gt;Y0</t>
-  </si>
-  <si>
-    <t>SD_Y0</t>
-  </si>
-  <si>
-    <t>E0T0</t>
-  </si>
-  <si>
-    <t>E0T1</t>
-  </si>
-  <si>
-    <t>E0T2</t>
-  </si>
-  <si>
-    <t>E0T3</t>
-  </si>
-  <si>
-    <t>E0T4</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E0I' TableTitle='SBTAB_Findsim E0I' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>!Input_Time_S51</t>
-  </si>
-  <si>
-    <t>&gt;S51</t>
-  </si>
-  <si>
-    <t>E0IT0</t>
-  </si>
-  <si>
-    <t>E0IT1</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E1' TableTitle='SBTAB_Findsim E1' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>&gt;Y6</t>
-  </si>
-  <si>
-    <t>SD_Y6</t>
-  </si>
-  <si>
-    <t>E1T0</t>
-  </si>
-  <si>
-    <t>E1T1</t>
-  </si>
-  <si>
-    <t>E1T2</t>
-  </si>
-  <si>
-    <t>E1T3</t>
-  </si>
-  <si>
-    <t>E1T4</t>
-  </si>
-  <si>
-    <t>E1T5</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='E1I' TableTitle='SBTAB_Findsim E1I' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>E1IT0</t>
-  </si>
-  <si>
-    <t>E1IT1</t>
-  </si>
-  <si>
-    <t>Time_E1T0_Y6</t>
-  </si>
-  <si>
-    <t>!DefaultValue</t>
-  </si>
-  <si>
-    <t>!Scale</t>
-  </si>
-  <si>
-    <t>log10</t>
-  </si>
-  <si>
-    <t>!Size</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Findsim' TableName='Compartment' TableTitle='SBTAB_Findsim Compound' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>liter</t>
-  </si>
-  <si>
-    <t>TableName='Defaults' TableType='Quantity' TableTitle='Default units for this model' SBtabVersion='1.0' Document='SBTAB_Findsim'</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>substance</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>um2</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>%S11</t>
-  </si>
-  <si>
-    <t>micromole/liter</t>
-  </si>
-  <si>
-    <t>liter/(micromole*second)</t>
-  </si>
-  <si>
-    <t>micromole/litre</t>
-  </si>
-  <si>
-    <t>umol</t>
+    <t>&gt;Y1</t>
+  </si>
+  <si>
+    <t>SD_Y1</t>
+  </si>
+  <si>
+    <t>(MAPK_p+MAPK_p_p)</t>
+  </si>
+  <si>
+    <t>Time_E1T0_Y1</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4122,57 +4092,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="B3" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="C3" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="B4" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="C4" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="B5" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="C5" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="B6" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="C6" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="B7" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="C7" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4155,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4195,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4203,15 +4173,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C2" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4222,7 +4192,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -4240,7 +4210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4249,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4257,18 +4229,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="C2" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
       <c r="D2" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="B3">
         <v>3600</v>
@@ -4282,7 +4254,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="B4">
         <v>3900</v>
@@ -4296,7 +4268,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="B5">
         <v>5400</v>
@@ -4310,7 +4282,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="B6">
         <v>7200</v>
@@ -4324,7 +4296,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
       <c r="B7">
         <v>14400</v>
@@ -4338,7 +4310,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
       <c r="B8">
         <v>36000</v>
@@ -4360,7 +4332,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4370,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4378,15 +4350,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C2" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4397,7 +4369,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="B4">
         <v>3600</v>
@@ -4431,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4445,18 +4417,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="D3" s="2">
         <v>1.0000000000000001E-15</v>
@@ -4472,15 +4444,18 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J104"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="116.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -4531,7 +4506,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4563,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4595,7 +4570,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -4627,7 +4602,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4659,7 +4634,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4691,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D8" s="1">
         <v>2.0000000000063099E-2</v>
@@ -4723,7 +4698,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4755,7 +4730,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4787,7 +4762,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4819,7 +4794,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4851,7 +4826,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -4877,13 +4852,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4909,13 +4884,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D15" s="1">
         <v>0.399999999999685</v>
@@ -4947,7 +4922,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4979,7 +4954,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -5011,7 +4986,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -5043,7 +5018,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -5075,7 +5050,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D20" s="1">
         <v>30.0007914522125</v>
@@ -5107,7 +5082,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -5139,7 +5114,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -5171,7 +5146,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -5203,7 +5178,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D24" s="1">
         <v>0.79999999999936899</v>
@@ -5235,7 +5210,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -5267,7 +5242,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -5299,7 +5274,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -5331,7 +5306,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -5363,7 +5338,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -5395,7 +5370,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -5427,7 +5402,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D31" s="1">
         <v>0.73000395726099898</v>
@@ -5459,7 +5434,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D32" s="1">
         <v>6.99999999999054</v>
@@ -5491,7 +5466,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -5523,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D34" s="1">
         <v>0.20000000000063098</v>
@@ -5555,7 +5530,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -5587,7 +5562,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D36" s="1">
         <v>0.18000791452300802</v>
@@ -5619,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D37" s="1">
         <v>0.36000000000050497</v>
@@ -5651,7 +5626,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -5683,7 +5658,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -5715,7 +5690,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -5747,7 +5722,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -5779,7 +5754,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -5811,7 +5786,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -5843,7 +5818,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D44" s="1">
         <v>0.1</v>
@@ -5875,7 +5850,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -5907,7 +5882,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -5939,7 +5914,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D47" s="1">
         <v>0.5</v>
@@ -5971,7 +5946,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -6003,7 +5978,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6035,7 +6010,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -6067,7 +6042,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -6099,7 +6074,7 @@
         <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D52" s="1">
         <v>0.16666402849294001</v>
@@ -6131,7 +6106,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -6163,7 +6138,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -6195,7 +6170,7 @@
         <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -6227,7 +6202,7 @@
         <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -6259,7 +6234,7 @@
         <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D57" s="1">
         <v>0.50000791452275606</v>
@@ -6291,7 +6266,7 @@
         <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -6323,7 +6298,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -6355,7 +6330,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -6387,7 +6362,7 @@
         <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -6419,7 +6394,7 @@
         <v>131</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -6451,7 +6426,7 @@
         <v>133</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D63" s="1">
         <v>0.1</v>
@@ -6483,7 +6458,7 @@
         <v>135</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -6515,7 +6490,7 @@
         <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D65" s="1">
         <v>0.82000791452250299</v>
@@ -6547,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -6579,7 +6554,7 @@
         <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -6611,7 +6586,7 @@
         <v>143</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -6643,7 +6618,7 @@
         <v>145</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D69" s="1">
         <v>7.00023743568898E-4</v>
@@ -6675,7 +6650,7 @@
         <v>147</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D70" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6707,7 +6682,7 @@
         <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D71" s="1">
         <v>0.26000791452294497</v>
@@ -6739,7 +6714,7 @@
         <v>151</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D72" s="1">
         <v>7.9999999999936899E-2</v>
@@ -6771,7 +6746,7 @@
         <v>153</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -6803,7 +6778,7 @@
         <v>155</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -6835,7 +6810,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -6867,7 +6842,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -6899,7 +6874,7 @@
         <v>161</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -6931,7 +6906,7 @@
         <v>163</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -6963,7 +6938,7 @@
         <v>165</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -6995,7 +6970,7 @@
         <v>167</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -7027,7 +7002,7 @@
         <v>169</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -7059,7 +7034,7 @@
         <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -7091,7 +7066,7 @@
         <v>173</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -7123,7 +7098,7 @@
         <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -7155,7 +7130,7 @@
         <v>177</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -7187,7 +7162,7 @@
         <v>179</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -7219,7 +7194,7 @@
         <v>181</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -7251,7 +7226,7 @@
         <v>183</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -7283,7 +7258,7 @@
         <v>185</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -7315,7 +7290,7 @@
         <v>187</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -7347,7 +7322,7 @@
         <v>189</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -7379,7 +7354,7 @@
         <v>191</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -7411,7 +7386,7 @@
         <v>193</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -7443,7 +7418,7 @@
         <v>195</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -7475,7 +7450,7 @@
         <v>197</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -7507,7 +7482,7 @@
         <v>199</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -7539,7 +7514,7 @@
         <v>201</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -7571,7 +7546,7 @@
         <v>203</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -7603,7 +7578,7 @@
         <v>205</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -7635,7 +7610,7 @@
         <v>207</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -7667,7 +7642,7 @@
         <v>209</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -7699,7 +7674,7 @@
         <v>211</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -7731,7 +7706,7 @@
         <v>213</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -7763,7 +7738,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -7796,21 +7771,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D162"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="24.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="52.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -7832,10 +7808,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>217</v>
@@ -7861,13 +7837,13 @@
         <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D3" s="1">
         <v>-0.22185001992911629</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F3" s="1">
         <f>LOG(G3,2)</f>
@@ -7902,7 +7878,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F67" si="1">LOG(G4,2)</f>
@@ -7931,13 +7907,13 @@
         <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D5" s="1">
         <v>-2.0969181425324788</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
@@ -7972,7 +7948,7 @@
         <v>0.93625228285283602</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
@@ -8007,7 +7983,7 @@
         <v>0.10397466938638814</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -8042,7 +8018,7 @@
         <v>0.54439054333774783</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -8077,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -8112,7 +8088,7 @@
         <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
@@ -8141,13 +8117,13 @@
         <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D11" s="1">
         <v>-2.9208154515160163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -8182,7 +8158,7 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -8217,7 +8193,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
@@ -8252,7 +8228,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -8287,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
@@ -8322,7 +8298,7 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -8351,13 +8327,13 @@
         <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D17" s="1">
         <v>-3.9208154515160163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
@@ -8392,7 +8368,7 @@
         <v>-1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -8421,13 +8397,13 @@
         <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D19" s="1">
         <v>-3.2218500199291165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -8462,7 +8438,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
@@ -8491,13 +8467,13 @@
         <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D21" s="1">
         <v>-1.7447318137356149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -8532,7 +8508,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
@@ -8561,13 +8537,13 @@
         <v>283</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D23" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
@@ -8602,7 +8578,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
@@ -8631,13 +8607,13 @@
         <v>289</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D25" s="1">
         <v>-2.5228800155930973</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -8672,7 +8648,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -8707,7 +8683,7 @@
         <v>-0.3979400086720376</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -8736,13 +8712,13 @@
         <v>298</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D28" s="1">
         <v>0.77814998007088365</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -8777,7 +8753,7 @@
         <v>-1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
@@ -8812,7 +8788,7 @@
         <v>-0.769551078621726</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
@@ -8841,13 +8817,13 @@
         <v>307</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D31" s="1">
         <v>0.47711998440690245</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
@@ -8882,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -8917,7 +8893,7 @@
         <v>0.3979400086720376</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -8952,7 +8928,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
@@ -8981,13 +8957,13 @@
         <v>319</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D35" s="1">
         <v>1.4771199844069025</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
@@ -9022,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
@@ -9051,13 +9027,13 @@
         <v>325</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D37" s="1">
         <v>0.99996815115037152</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
@@ -9092,7 +9068,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
@@ -9127,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
@@ -9162,7 +9138,7 @@
         <v>-4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -9197,7 +9173,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
@@ -9232,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
@@ -9261,13 +9237,13 @@
         <v>343</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D43" s="1">
         <v>0.62324932658914622</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
@@ -9302,7 +9278,7 @@
         <v>-0.6020599913279624</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
@@ -9337,7 +9313,7 @@
         <v>-2.6989700043360187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
@@ -9372,7 +9348,7 @@
         <v>-3.4814860601221125</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
@@ -9407,7 +9383,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
@@ -9436,13 +9412,13 @@
         <v>358</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D48" s="1">
         <v>-0.30104772826912196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
@@ -9477,7 +9453,7 @@
         <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
@@ -9506,13 +9482,13 @@
         <v>364</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D50" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
@@ -9547,7 +9523,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
@@ -9582,7 +9558,7 @@
         <v>-3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
@@ -9611,13 +9587,13 @@
         <v>373</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D53" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
@@ -9652,7 +9628,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
@@ -9681,13 +9657,13 @@
         <v>379</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D55" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
@@ -9722,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
@@ -9751,13 +9727,13 @@
         <v>385</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D57" s="1">
         <v>2.2552681862643853</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
@@ -9792,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
@@ -9821,13 +9797,13 @@
         <v>391</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D59" s="1">
         <v>1.0791845484839835</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
@@ -9862,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
@@ -9897,7 +9873,7 @@
         <v>-1.3010299956639813</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
@@ -9932,7 +9908,7 @@
         <v>-1.1549019599857431</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
@@ -9961,13 +9937,13 @@
         <v>403</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D63" s="1">
         <v>-2.2375193560962289E-2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
@@ -10002,7 +9978,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
@@ -10037,7 +10013,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
@@ -10066,13 +10042,13 @@
         <v>412</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D66" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
@@ -10107,7 +10083,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
@@ -10142,7 +10118,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="3">LOG(G68,2)</f>
@@ -10171,13 +10147,13 @@
         <v>421</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D69" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
@@ -10212,7 +10188,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
@@ -10247,7 +10223,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
@@ -10276,13 +10252,13 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D72" s="1">
         <v>0.10473489550986602</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
@@ -10317,7 +10293,7 @@
         <v>1.3344537511509309</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
@@ -10352,7 +10328,7 @@
         <v>0.7323937598229685</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
@@ -10381,13 +10357,13 @@
         <v>439</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D75" s="1">
         <v>0.41531020908033411</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
@@ -10422,7 +10398,7 @@
         <v>1.6450290647211425</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
@@ -10457,7 +10433,7 @@
         <v>1.04296907339318</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
@@ -10486,13 +10462,13 @@
         <v>448</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D78" s="1">
         <v>0.92864363645633996</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
@@ -10527,7 +10503,7 @@
         <v>2.1583624920952498</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
@@ -10562,7 +10538,7 @@
         <v>1.5563025007672873</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
@@ -10591,13 +10567,13 @@
         <v>457</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D81" s="1">
         <v>1.1504923860707554</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -10632,7 +10608,7 @@
         <v>2.3802112417116059</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
@@ -10667,7 +10643,7 @@
         <v>1.7781512503836436</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
@@ -10696,13 +10672,13 @@
         <v>466</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D84" s="1">
         <v>1.451522381734738</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -10737,7 +10713,7 @@
         <v>2.6812412373755872</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
@@ -10772,7 +10748,7 @@
         <v>2.0791812460476247</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
@@ -10801,13 +10777,13 @@
         <v>475</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D87" s="1">
         <v>0.37580166779671081</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
@@ -10842,7 +10818,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -10877,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -10906,13 +10882,13 @@
         <v>484</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D90" s="1">
         <v>1.6556423643913893</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
@@ -10947,7 +10923,7 @@
         <v>2.2833012287035497</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
@@ -10982,7 +10958,7 @@
         <v>1.6812412373755872</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
@@ -11011,13 +10987,13 @@
         <v>493</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D93" s="1">
         <v>0.56546573404202194</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
@@ -11052,7 +11028,7 @@
         <v>1.9030899869919435</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
@@ -11087,7 +11063,7 @@
         <v>1.3010299956639813</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -11116,13 +11092,13 @@
         <v>502</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D96" s="1">
         <v>0.26443573837803958</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
@@ -11157,7 +11133,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
@@ -11192,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
@@ -11221,13 +11197,13 @@
         <v>511</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D99" s="1">
         <v>1.2644357383780396</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
@@ -11262,7 +11238,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
@@ -11297,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
@@ -11326,13 +11302,13 @@
         <v>520</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D102" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
@@ -11367,7 +11343,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
@@ -11402,7 +11378,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
@@ -11431,13 +11407,13 @@
         <v>529</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D105" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
@@ -11472,7 +11448,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
@@ -11507,7 +11483,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
@@ -11536,13 +11512,13 @@
         <v>538</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D108" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
@@ -11577,7 +11553,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
@@ -11612,7 +11588,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
@@ -11641,13 +11617,13 @@
         <v>547</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D111" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
@@ -11682,7 +11658,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
@@ -11717,7 +11693,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
@@ -11746,13 +11722,13 @@
         <v>556</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D114" s="1">
         <v>-2.023562183190132</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
@@ -11787,7 +11763,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
@@ -11822,7 +11798,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
@@ -11851,13 +11827,13 @@
         <v>565</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D117" s="1">
         <v>-0.72893368272351255</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
@@ -11892,7 +11868,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
@@ -11927,7 +11903,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
@@ -11956,13 +11932,13 @@
         <v>574</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D120" s="1">
         <v>1.6688837502421359</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
@@ -11997,7 +11973,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
@@ -12032,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
@@ -12061,13 +12037,13 @@
         <v>583</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D123" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
@@ -12102,7 +12078,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
@@ -12137,7 +12113,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
@@ -12166,13 +12142,13 @@
         <v>592</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D126" s="1">
         <v>0.45152238173473652</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
@@ -12207,7 +12183,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
@@ -12242,7 +12218,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
@@ -12271,13 +12247,13 @@
         <v>601</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D129" s="1">
         <v>5.3582373062212973E-2</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
@@ -12312,7 +12288,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
@@ -12347,7 +12323,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="3"/>
@@ -12376,13 +12352,13 @@
         <v>610</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D132" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ref="F132:F162" si="5">LOG(G132,2)</f>
@@ -12417,7 +12393,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="5"/>
@@ -12452,7 +12428,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
@@ -12487,17 +12463,17 @@
         <v>1.146128035678238</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="5"/>
+        <f>LOG(G135,2)</f>
         <v>3.8073549220576037</v>
       </c>
       <c r="G135">
         <v>14</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="4"/>
+        <f>LOG10(G135)</f>
         <v>1.146128035678238</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -12516,23 +12492,23 @@
         <v>622</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D136" s="1">
         <v>1.9877622411489231</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="5"/>
+        <f>LOG(G136,2)</f>
         <v>6.6032032348288761</v>
       </c>
       <c r="G136" s="1">
         <v>97.221482934086595</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="4"/>
+        <f>LOG10(G136)</f>
         <v>1.9877622411489231</v>
       </c>
       <c r="I136" s="1" t="s">
@@ -12557,7 +12533,7 @@
         <v>1.7558748556724915</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
@@ -12586,13 +12562,13 @@
         <v>628</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D138" s="1">
         <v>1.2964790654772824</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
@@ -12621,13 +12597,13 @@
         <v>631</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D139" s="1">
         <v>0.90162804695170085</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
@@ -12662,7 +12638,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
@@ -12697,7 +12673,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
@@ -12726,13 +12702,13 @@
         <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D142" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
@@ -12767,7 +12743,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
@@ -12802,7 +12778,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
@@ -12831,13 +12807,13 @@
         <v>649</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D145" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
@@ -12872,7 +12848,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
@@ -12907,7 +12883,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
@@ -12936,13 +12912,13 @@
         <v>658</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D148" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
@@ -12977,7 +12953,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
@@ -13012,7 +12988,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
@@ -13041,13 +13017,13 @@
         <v>667</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D151" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
@@ -13082,7 +13058,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
@@ -13117,7 +13093,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
@@ -13146,13 +13122,13 @@
         <v>676</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D154" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
@@ -13187,7 +13163,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
@@ -13222,7 +13198,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
@@ -13251,13 +13227,13 @@
         <v>685</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D157" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
@@ -13292,7 +13268,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
@@ -13327,7 +13303,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
@@ -13356,13 +13332,13 @@
         <v>694</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D160" s="1">
         <v>0.25682879620936039</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
@@ -13397,7 +13373,7 @@
         <v>1.3802112417116059</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
@@ -13432,7 +13408,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
@@ -13456,6 +13432,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13463,13 +13440,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="71.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -15958,21 +15940,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -16023,14 +16007,14 @@
         <v>1124</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D9" si="0">_xlfn.CONCAT("SD_",A3)</f>
+        <f t="shared" ref="D3" si="0">_xlfn.CONCAT("SD_",A3)</f>
         <v>SD_Y0</v>
       </c>
       <c r="E3" t="s">
         <v>1125</v>
       </c>
       <c r="F3" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="G3" t="s">
         <v>1126</v>
@@ -16043,25 +16027,25 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>1127</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B4" t="s">
         <v>1128</v>
       </c>
-      <c r="B4" t="s">
-        <v>1129</v>
-      </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("SD_",A4)</f>
         <v>SD_Y1</v>
       </c>
       <c r="E4" t="s">
         <v>1125</v>
       </c>
       <c r="F4" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="G4" t="s">
         <v>1126</v>
@@ -16074,162 +16058,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>SD_Y2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H5" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
-        <v>\ce{[Total_{\text{C}}]}</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>SD_Y3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H6" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
-        <v>\ce{[Total_{\text{C}}]}</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>SD_Y4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H7" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
-        <v>\ce{[Total_{\text{C}}]}</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>SD_Y5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H8" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
-        <v>\ce{[Total_{\text{C}}]}</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>SD_Y6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H9" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
-        <v>\ce{[Total_{\text{C}}]}</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1127</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -16242,17 +16071,22 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="3" max="3" width="81.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -16274,16 +16108,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="D3" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -16298,18 +16132,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="31" max="31" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -16320,114 +16159,114 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P2" t="s">
         <v>1145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
         <v>1146</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>1147</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" t="s">
         <v>1148</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>1149</v>
       </c>
-      <c r="J2" t="s">
+      <c r="U2" t="s">
         <v>1150</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
         <v>1151</v>
       </c>
-      <c r="L2" t="s">
+      <c r="W2" t="s">
         <v>1152</v>
       </c>
-      <c r="M2" t="s">
+      <c r="X2" t="s">
         <v>1153</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Y2" t="s">
         <v>1154</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
         <v>1155</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AA2" t="s">
         <v>1156</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AB2" t="s">
         <v>1157</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1168</v>
       </c>
       <c r="AC2" t="s">
         <v>11</v>
       </c>
       <c r="AD2" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="AE2" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="AF2" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="AG2" t="s">
-        <v>1172</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="B3" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="D3" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="E3" t="s">
         <v>1123</v>
       </c>
       <c r="F3" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="G3">
         <v>2.0000000000063099E-2</v>
@@ -16503,24 +16342,24 @@
         <v>10000</v>
       </c>
       <c r="AG3" t="s">
-        <v>1177</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="B4" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="D4" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="E4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F4" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="G4">
         <v>2.0000000000063099E-2</v>
@@ -16596,7 +16435,7 @@
         <v>40000</v>
       </c>
       <c r="AG4" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -16608,7 +16447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -16617,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -16625,18 +16466,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="D2" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="B3">
         <v>2100</v>
@@ -16650,7 +16491,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="B4">
         <v>2400</v>
@@ -16664,7 +16505,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="B5">
         <v>3900</v>
@@ -16678,7 +16519,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="B6">
         <v>5700</v>
@@ -16692,7 +16533,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="B7">
         <v>9300</v>
